--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_branch_ward34_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_0_branch_ward34_resonant.xlsx
@@ -994,40 +994,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420844211E-14</v>
+        <v>-2.084258736675597E-14</v>
       </c>
       <c r="O2">
-        <v>1.302657324430829E-14</v>
+        <v>-1.042133592937637E-14</v>
       </c>
       <c r="P2">
-        <v>5.210602310044589E-15</v>
+        <v>-1.563198667544865E-14</v>
       </c>
       <c r="Q2">
-        <v>1.563194052506538E-14</v>
+        <v>-1.563194052506539E-14</v>
       </c>
       <c r="R2">
-        <v>-1.04208215775057E-14</v>
+        <v>2.605370469744307E-14</v>
       </c>
       <c r="S2">
-        <v>-1.042082090133837E-14</v>
+        <v>1.563241492522815E-14</v>
       </c>
       <c r="T2">
-        <v>2.084258736675318E-14</v>
+        <v>-3.158828288434531E-27</v>
       </c>
       <c r="U2">
-        <v>5.763394861896599E-09</v>
+        <v>5.763400072542076E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029843E-09</v>
+        <v>-5.763392260734786E-09</v>
       </c>
       <c r="W2">
-        <v>-2.08425873667533E-14</v>
+        <v>-1.042129368338035E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763400072057539E-09</v>
+        <v>-5.7634026773796E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763402682515742E-09</v>
+        <v>5.763387050573843E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1048,40 +1048,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808897</v>
       </c>
       <c r="AG2">
-        <v>0.550000011705746</v>
+        <v>0.550000011705616</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030185</v>
+        <v>0.5500000121028877</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808896</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116592473</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493877</v>
+        <v>0.5500000121492573</v>
       </c>
       <c r="AL2">
-        <v>6.835683379550131E-13</v>
+        <v>8.683544223616918E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995567</v>
+        <v>-179.9999999995727</v>
       </c>
       <c r="AN2">
-        <v>179.99999999955</v>
+        <v>179.999999999534</v>
       </c>
       <c r="AO2">
-        <v>7.06355645745588E-13</v>
+        <v>8.68972208498806E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999953153</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952926</v>
+        <v>179.9999999952766</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1125,40 +1125,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052506458E-14</v>
+        <v>-3.647452789181817E-14</v>
       </c>
       <c r="O3">
-        <v>1.302682204731261E-14</v>
+        <v>2.044132128564029E-19</v>
       </c>
       <c r="P3">
-        <v>1.563214570858114E-14</v>
+        <v>1.563214624901918E-14</v>
       </c>
       <c r="Q3">
-        <v>5.210646841687731E-15</v>
+        <v>5.210646841685831E-15</v>
       </c>
       <c r="R3">
-        <v>-1.573656534921777E-19</v>
+        <v>1.563178368626172E-14</v>
       </c>
       <c r="S3">
-        <v>-3.126403865961736E-14</v>
+        <v>-1.563209866480821E-14</v>
       </c>
       <c r="T3">
-        <v>-4.168517473350715E-14</v>
+        <v>-3.126388105013947E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921131620416245E-09</v>
+        <v>-1.921115988475277E-09</v>
       </c>
       <c r="V3">
-        <v>1.92111338497186E-09</v>
+        <v>1.92114464885247E-09</v>
       </c>
       <c r="W3">
-        <v>5.21064684168838E-14</v>
+        <v>2.084258736675676E-14</v>
       </c>
       <c r="X3">
-        <v>1.921115988529715E-09</v>
+        <v>1.921113383205845E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921134227505244E-09</v>
+        <v>-1.921149859445322E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1179,40 +1179,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808765</v>
+        <v>1.100000023808896</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439208</v>
+        <v>0.5500000116437915</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121647144</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808896</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116592473</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493877</v>
+        <v>0.5500000121492573</v>
       </c>
       <c r="AL3">
-        <v>7.194758010685721E-13</v>
+        <v>8.70364030378579E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938803</v>
+        <v>-179.9999999938962</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938575</v>
       </c>
       <c r="AO3">
-        <v>7.06355645745588E-13</v>
+        <v>8.68972208498806E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999953153</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952926</v>
+        <v>179.9999999952766</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1256,40 +1256,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.210646841687913E-15</v>
+        <v>-3.647452789181817E-14</v>
       </c>
       <c r="O4">
-        <v>2.605528368871056E-15</v>
+        <v>2.044132128564029E-19</v>
       </c>
       <c r="P4">
-        <v>3.647473308631799E-14</v>
+        <v>1.563214624901918E-14</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841688824E-15</v>
+        <v>5.210646841685831E-15</v>
       </c>
       <c r="R4">
-        <v>1.042113631137363E-14</v>
+        <v>1.563178368626172E-14</v>
       </c>
       <c r="S4">
-        <v>-4.168533234763641E-14</v>
+        <v>-1.563209866480821E-14</v>
       </c>
       <c r="T4">
-        <v>-3.647452789181866E-14</v>
+        <v>-3.126388105013947E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921131620416245E-09</v>
+        <v>-1.921115988475277E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265546E-09</v>
+        <v>1.92114464885247E-09</v>
       </c>
       <c r="W4">
-        <v>3.647452789181855E-14</v>
+        <v>2.084258736675676E-14</v>
       </c>
       <c r="X4">
-        <v>1.921136831117073E-09</v>
+        <v>1.921113383205845E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921134227505244E-09</v>
+        <v>-1.921149859445322E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1310,40 +1310,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808765</v>
+        <v>1.100000023808896</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116437915</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648447</v>
+        <v>0.5500000121647144</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808896</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116592473</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493877</v>
+        <v>0.5500000121492573</v>
       </c>
       <c r="AL4">
-        <v>7.194740614528267E-13</v>
+        <v>8.70364030378579E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938803</v>
+        <v>-179.9999999938962</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938575</v>
       </c>
       <c r="AO4">
-        <v>7.06355645745588E-13</v>
+        <v>8.68972208498806E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999953153</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952926</v>
+        <v>179.9999999952766</v>
       </c>
     </row>
   </sheetData>
@@ -1531,40 +1531,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420851912E-14</v>
+        <v>-7.114613868573071E-28</v>
       </c>
       <c r="O2">
-        <v>-7.307806493710491E-10</v>
+        <v>-7.307945553437003E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307866162078E-09</v>
+        <v>-2.0393045022049E-09</v>
       </c>
       <c r="Q2">
-        <v>1.563194052511158E-14</v>
+        <v>-2.084258736681506E-14</v>
       </c>
       <c r="R2">
-        <v>7.307922790327673E-10</v>
+        <v>7.308013854357342E-10</v>
       </c>
       <c r="S2">
-        <v>2.039307866451099E-09</v>
+        <v>2.039305362318722E-09</v>
       </c>
       <c r="T2">
-        <v>2.605323420851863E-14</v>
+        <v>5.2106468417043E-15</v>
       </c>
       <c r="U2">
-        <v>5.822514425773938E-09</v>
+        <v>5.822503985643908E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556072532027604E-09</v>
+        <v>-3.556064159801387E-09</v>
       </c>
       <c r="W2">
-        <v>-2.605323420851873E-14</v>
+        <v>-1.563194052511574E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822507943897208E-09</v>
+        <v>-5.822492109575614E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556072532355529E-09</v>
+        <v>3.556078400446095E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1585,40 +1585,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812128</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635713</v>
+        <v>0.6816683458634287</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780341</v>
+        <v>0.4761907155779835</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812128</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458298136</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277306</v>
       </c>
       <c r="AL2">
-        <v>5.369997152294586E-13</v>
+        <v>7.82316207408011E-12</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584273</v>
+        <v>-164.9034422584362</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654785</v>
+        <v>158.109749165458</v>
       </c>
       <c r="AO2">
-        <v>5.545441815281501E-13</v>
+        <v>7.829428058590329E-12</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552376</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642338</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1662,40 +1662,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.084258736681484E-14</v>
+        <v>-2.084258736681433E-14</v>
       </c>
       <c r="O3">
-        <v>2.436098485782495E-10</v>
+        <v>2.435959426041936E-10</v>
       </c>
       <c r="P3">
-        <v>6.797732009102621E-10</v>
+        <v>6.797849370939603E-10</v>
       </c>
       <c r="Q3">
-        <v>1.563194052511107E-14</v>
+        <v>5.210646841702162E-15</v>
       </c>
       <c r="R3">
-        <v>-2.435982191734383E-10</v>
+        <v>-2.435982191730868E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797765648363851E-10</v>
+        <v>-6.797790689701736E-10</v>
       </c>
       <c r="T3">
-        <v>-2.605323420851907E-14</v>
+        <v>-2.084258736682003E-14</v>
       </c>
       <c r="U3">
-        <v>-1.940815908032162E-09</v>
+        <v>-1.940826348160722E-09</v>
       </c>
       <c r="V3">
-        <v>1.185359180243904E-09</v>
+        <v>1.185364188510407E-09</v>
       </c>
       <c r="W3">
-        <v>2.605323420851903E-14</v>
+        <v>1.56319405251136E-14</v>
       </c>
       <c r="X3">
-        <v>1.940822389617398E-09</v>
+        <v>1.940822389617032E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185367552432575E-09</v>
+        <v>-1.185361684340534E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1716,40 +1716,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023812017</v>
+        <v>1.100000023812127</v>
       </c>
       <c r="AG3">
-        <v>0.681668345818751</v>
+        <v>0.6816683458186091</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443635</v>
+        <v>0.4761907156443134</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812018</v>
+        <v>1.100000023812128</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458298136</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277306</v>
       </c>
       <c r="AL3">
-        <v>5.665163787924766E-13</v>
+        <v>7.834818976604069E-12</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541714</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638258</v>
       </c>
       <c r="AO3">
-        <v>5.545441815281501E-13</v>
+        <v>7.829428058590329E-12</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552376</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642338</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1793,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.122143863946192E-28</v>
+        <v>-2.084258736681433E-14</v>
       </c>
       <c r="O4">
-        <v>2.435973782159913E-10</v>
+        <v>2.435959426041936E-10</v>
       </c>
       <c r="P4">
-        <v>6.797765648684993E-10</v>
+        <v>6.797849370939603E-10</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841704078E-15</v>
+        <v>5.210646841702162E-15</v>
       </c>
       <c r="R4">
-        <v>-2.435982191734383E-10</v>
+        <v>-2.435982191730868E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797849370614934E-10</v>
+        <v>-6.797790689701736E-10</v>
       </c>
       <c r="T4">
-        <v>-3.126388105022264E-14</v>
+        <v>-2.084258736682003E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940819271990399E-09</v>
+        <v>-1.940826348160722E-09</v>
       </c>
       <c r="V4">
-        <v>1.185367552469013E-09</v>
+        <v>1.185364188510407E-09</v>
       </c>
       <c r="W4">
-        <v>3.12638810502226E-14</v>
+        <v>1.56319405251136E-14</v>
       </c>
       <c r="X4">
-        <v>1.940822389617398E-09</v>
+        <v>1.940822389617032E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185364188474338E-09</v>
+        <v>-1.185361684340534E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1847,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812127</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187509</v>
+        <v>0.6816683458186091</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443637</v>
+        <v>0.4761907156443134</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812018</v>
+        <v>1.100000023812128</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458298136</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277306</v>
       </c>
       <c r="AL4">
-        <v>5.721799739111493E-13</v>
+        <v>7.834818976604069E-12</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541714</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638258</v>
       </c>
       <c r="AO4">
-        <v>5.545441815281501E-13</v>
+        <v>7.829428058590329E-12</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552376</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642338</v>
       </c>
     </row>
   </sheetData>
@@ -2068,40 +2068,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420851912E-14</v>
+        <v>-7.114613868573071E-28</v>
       </c>
       <c r="O2">
-        <v>-7.307806493710491E-10</v>
+        <v>-7.307945553437003E-10</v>
       </c>
       <c r="P2">
-        <v>-2.039307866162078E-09</v>
+        <v>-2.0393045022049E-09</v>
       </c>
       <c r="Q2">
-        <v>1.563194052511158E-14</v>
+        <v>-2.084258736681506E-14</v>
       </c>
       <c r="R2">
-        <v>7.307922790327673E-10</v>
+        <v>7.308013854357342E-10</v>
       </c>
       <c r="S2">
-        <v>2.039307866451099E-09</v>
+        <v>2.039305362318722E-09</v>
       </c>
       <c r="T2">
-        <v>2.605323420851863E-14</v>
+        <v>5.2106468417043E-15</v>
       </c>
       <c r="U2">
-        <v>5.822514425773938E-09</v>
+        <v>5.822503985643908E-09</v>
       </c>
       <c r="V2">
-        <v>-3.556072532027604E-09</v>
+        <v>-3.556064159801387E-09</v>
       </c>
       <c r="W2">
-        <v>-2.605323420851873E-14</v>
+        <v>-1.563194052511574E-14</v>
       </c>
       <c r="X2">
-        <v>-5.822507943897208E-09</v>
+        <v>-5.822492109575614E-09</v>
       </c>
       <c r="Y2">
-        <v>3.556072532355529E-09</v>
+        <v>3.556078400446095E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2122,40 +2122,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812128</v>
       </c>
       <c r="AG2">
-        <v>0.6816683458635713</v>
+        <v>0.6816683458634287</v>
       </c>
       <c r="AH2">
-        <v>0.4761907155780341</v>
+        <v>0.4761907155779835</v>
       </c>
       <c r="AI2">
-        <v>1.100000023812018</v>
+        <v>1.100000023812128</v>
       </c>
       <c r="AJ2">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458298136</v>
       </c>
       <c r="AK2">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277306</v>
       </c>
       <c r="AL2">
-        <v>5.369997152294586E-13</v>
+        <v>7.82316207408011E-12</v>
       </c>
       <c r="AM2">
-        <v>-164.9034422584273</v>
+        <v>-164.9034422584362</v>
       </c>
       <c r="AN2">
-        <v>158.1097491654785</v>
+        <v>158.109749165458</v>
       </c>
       <c r="AO2">
-        <v>5.545441815281501E-13</v>
+        <v>7.829428058590329E-12</v>
       </c>
       <c r="AP2">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552376</v>
       </c>
       <c r="AQ2">
-        <v>158.1097491642543</v>
+        <v>158.1097491642338</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2199,40 +2199,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-2.084258736681484E-14</v>
+        <v>-2.084258736681433E-14</v>
       </c>
       <c r="O3">
-        <v>2.436098485782495E-10</v>
+        <v>2.435959426041936E-10</v>
       </c>
       <c r="P3">
-        <v>6.797732009102621E-10</v>
+        <v>6.797849370939603E-10</v>
       </c>
       <c r="Q3">
-        <v>1.563194052511107E-14</v>
+        <v>5.210646841702162E-15</v>
       </c>
       <c r="R3">
-        <v>-2.435982191734383E-10</v>
+        <v>-2.435982191730868E-10</v>
       </c>
       <c r="S3">
-        <v>-6.797765648363851E-10</v>
+        <v>-6.797790689701736E-10</v>
       </c>
       <c r="T3">
-        <v>-2.605323420851907E-14</v>
+        <v>-2.084258736682003E-14</v>
       </c>
       <c r="U3">
-        <v>-1.940815908032162E-09</v>
+        <v>-1.940826348160722E-09</v>
       </c>
       <c r="V3">
-        <v>1.185359180243904E-09</v>
+        <v>1.185364188510407E-09</v>
       </c>
       <c r="W3">
-        <v>2.605323420851903E-14</v>
+        <v>1.56319405251136E-14</v>
       </c>
       <c r="X3">
-        <v>1.940822389617398E-09</v>
+        <v>1.940822389617032E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.185367552432575E-09</v>
+        <v>-1.185361684340534E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2253,40 +2253,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023812017</v>
+        <v>1.100000023812127</v>
       </c>
       <c r="AG3">
-        <v>0.681668345818751</v>
+        <v>0.6816683458186091</v>
       </c>
       <c r="AH3">
-        <v>0.4761907156443635</v>
+        <v>0.4761907156443134</v>
       </c>
       <c r="AI3">
-        <v>1.100000023812018</v>
+        <v>1.100000023812128</v>
       </c>
       <c r="AJ3">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458298136</v>
       </c>
       <c r="AK3">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277306</v>
       </c>
       <c r="AL3">
-        <v>5.665163787924766E-13</v>
+        <v>7.834818976604069E-12</v>
       </c>
       <c r="AM3">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541714</v>
       </c>
       <c r="AN3">
-        <v>158.1097491638463</v>
+        <v>158.1097491638258</v>
       </c>
       <c r="AO3">
-        <v>5.545441815281501E-13</v>
+        <v>7.829428058590329E-12</v>
       </c>
       <c r="AP3">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552376</v>
       </c>
       <c r="AQ3">
-        <v>158.1097491642543</v>
+        <v>158.1097491642338</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2330,40 +2330,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.122143863946192E-28</v>
+        <v>-2.084258736681433E-14</v>
       </c>
       <c r="O4">
-        <v>2.435973782159913E-10</v>
+        <v>2.435959426041936E-10</v>
       </c>
       <c r="P4">
-        <v>6.797765648684993E-10</v>
+        <v>6.797849370939603E-10</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841704078E-15</v>
+        <v>5.210646841702162E-15</v>
       </c>
       <c r="R4">
-        <v>-2.435982191734383E-10</v>
+        <v>-2.435982191730868E-10</v>
       </c>
       <c r="S4">
-        <v>-6.797849370614934E-10</v>
+        <v>-6.797790689701736E-10</v>
       </c>
       <c r="T4">
-        <v>-3.126388105022264E-14</v>
+        <v>-2.084258736682003E-14</v>
       </c>
       <c r="U4">
-        <v>-1.940819271990399E-09</v>
+        <v>-1.940826348160722E-09</v>
       </c>
       <c r="V4">
-        <v>1.185367552469013E-09</v>
+        <v>1.185364188510407E-09</v>
       </c>
       <c r="W4">
-        <v>3.12638810502226E-14</v>
+        <v>1.56319405251136E-14</v>
       </c>
       <c r="X4">
-        <v>1.940822389617398E-09</v>
+        <v>1.940822389617032E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.185364188474338E-09</v>
+        <v>-1.185361684340534E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2384,40 +2384,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023812017</v>
+        <v>1.100000023812127</v>
       </c>
       <c r="AG4">
-        <v>0.6816683458187509</v>
+        <v>0.6816683458186091</v>
       </c>
       <c r="AH4">
-        <v>0.4761907156443637</v>
+        <v>0.4761907156443134</v>
       </c>
       <c r="AI4">
-        <v>1.100000023812018</v>
+        <v>1.100000023812128</v>
       </c>
       <c r="AJ4">
-        <v>0.6816683458299556</v>
+        <v>0.6816683458298136</v>
       </c>
       <c r="AK4">
-        <v>0.4761907156277809</v>
+        <v>0.4761907156277306</v>
       </c>
       <c r="AL4">
-        <v>5.721799739111493E-13</v>
+        <v>7.834818976604069E-12</v>
       </c>
       <c r="AM4">
-        <v>-164.9034422541625</v>
+        <v>-164.9034422541714</v>
       </c>
       <c r="AN4">
-        <v>158.1097491638463</v>
+        <v>158.1097491638258</v>
       </c>
       <c r="AO4">
-        <v>5.545441815281501E-13</v>
+        <v>7.829428058590329E-12</v>
       </c>
       <c r="AP4">
-        <v>-164.9034422552287</v>
+        <v>-164.9034422552376</v>
       </c>
       <c r="AQ4">
-        <v>158.1097491642543</v>
+        <v>158.1097491642338</v>
       </c>
     </row>
   </sheetData>
@@ -2605,40 +2605,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.473903143471385E-15</v>
+        <v>-1.421085471520858E-14</v>
       </c>
       <c r="O2">
-        <v>-5.92129177606192E-15</v>
+        <v>-1.539519464324371E-14</v>
       </c>
       <c r="P2">
-        <v>-7.105530247957143E-15</v>
+        <v>4.736848408521008E-15</v>
       </c>
       <c r="Q2">
-        <v>4.736951571735751E-15</v>
+        <v>9.473903143472849E-15</v>
       </c>
       <c r="R2">
-        <v>7.106209196772966E-15</v>
+        <v>1.776434995522498E-14</v>
       </c>
       <c r="S2">
-        <v>9.474685566908042E-15</v>
+        <v>-2.367693088276603E-15</v>
       </c>
       <c r="T2">
-        <v>-1.174291235863038E-28</v>
+        <v>1.894780628694317E-14</v>
       </c>
       <c r="U2">
-        <v>4.763118490472593E-09</v>
+        <v>4.763120858947886E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011744E-09</v>
+        <v>-4.763118493962823E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735634E-15</v>
+        <v>-2.368475785867929E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763120858546322E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763118494364883E-09</v>
+        <v>4.763113757412816E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -2659,40 +2659,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000357</v>
+        <v>1.000000000000409</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169617</v>
+        <v>0.49999999981691</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833943</v>
+        <v>0.5000000001833425</v>
       </c>
       <c r="AI2">
-        <v>1.000000000000357</v>
+        <v>1.000000000000409</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997747568</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002254961</v>
       </c>
       <c r="AL2">
-        <v>7.101817562966736E-13</v>
+        <v>2.328100275584076E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.999999998762</v>
+        <v>-179.9999999987652</v>
       </c>
       <c r="AN2">
-        <v>179.999999998755</v>
+        <v>179.9999999987517</v>
       </c>
       <c r="AO2">
-        <v>7.168607910624874E-13</v>
+        <v>2.361236020210145E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905879</v>
+        <v>-179.9999999905912</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905776</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2736,40 +2736,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-7.105427357603596E-15</v>
+        <v>3.928462527123185E-28</v>
       </c>
       <c r="O3">
-        <v>-1.183901772591708E-15</v>
+        <v>3.553049703655291E-15</v>
       </c>
       <c r="P3">
-        <v>2.368812096146955E-15</v>
+        <v>3.364029750978355E-19</v>
       </c>
       <c r="Q3">
-        <v>4.736951571735751E-15</v>
+        <v>-2.368475785868359E-15</v>
       </c>
       <c r="R3">
-        <v>2.368215167566046E-15</v>
+        <v>-1.184498415993109E-15</v>
       </c>
       <c r="S3">
-        <v>4.736690766444529E-15</v>
+        <v>7.105166460733706E-15</v>
       </c>
       <c r="T3">
-        <v>4.736951571735604E-15</v>
+        <v>-9.473903143471869E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587712479247819E-09</v>
+        <v>-1.58771011077187E-09</v>
       </c>
       <c r="V3">
-        <v>1.587707743816771E-09</v>
+        <v>1.587703006865033E-09</v>
       </c>
       <c r="W3">
-        <v>-4.736951571735634E-15</v>
+        <v>9.473903143471776E-15</v>
       </c>
       <c r="X3">
-        <v>1.587724321671361E-09</v>
+        <v>1.587710110816488E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587712480723728E-09</v>
+        <v>-1.587707743771989E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -2790,40 +2790,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607573</v>
+        <v>0.499999999760706</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395477</v>
       </c>
       <c r="AI3">
-        <v>1.000000000000357</v>
+        <v>1.000000000000409</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997747568</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002254961</v>
       </c>
       <c r="AL3">
-        <v>7.063882515190411E-13</v>
+        <v>2.375835169209479E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878632</v>
+        <v>-179.9999999878665</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878528</v>
       </c>
       <c r="AO3">
-        <v>7.168607910624874E-13</v>
+        <v>2.361236020210145E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905879</v>
+        <v>-179.9999999905912</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905776</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2867,40 +2867,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.421085471520713E-14</v>
+        <v>3.928462527123185E-28</v>
       </c>
       <c r="O4">
-        <v>8.290001369053892E-15</v>
+        <v>3.553049703655291E-15</v>
       </c>
       <c r="P4">
-        <v>7.105763672510212E-15</v>
+        <v>3.364029750978355E-19</v>
       </c>
       <c r="Q4">
-        <v>-1.657933050107492E-14</v>
+        <v>-2.368475785868359E-15</v>
       </c>
       <c r="R4">
-        <v>-7.10568797163507E-15</v>
+        <v>-1.184498415993109E-15</v>
       </c>
       <c r="S4">
-        <v>-2.608089825354682E-19</v>
+        <v>7.105166460733706E-15</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735515E-15</v>
+        <v>-9.473903143471869E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587721953150956E-09</v>
+        <v>-1.58771011077187E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719919E-09</v>
+        <v>1.587703006865033E-09</v>
       </c>
       <c r="W4">
-        <v>-2.074336378576325E-28</v>
+        <v>9.473903143471776E-15</v>
       </c>
       <c r="X4">
-        <v>1.587724321671359E-09</v>
+        <v>1.587710110816488E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587721954626874E-09</v>
+        <v>-1.587707743771989E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2921,40 +2921,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.499999999760706</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395477</v>
       </c>
       <c r="AI4">
-        <v>1.000000000000357</v>
+        <v>1.000000000000409</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997747568</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002254961</v>
       </c>
       <c r="AL4">
-        <v>7.13313644437706E-13</v>
+        <v>2.375835169209479E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878665</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878528</v>
       </c>
       <c r="AO4">
-        <v>7.168607910624874E-13</v>
+        <v>2.361236020210145E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905879</v>
+        <v>-179.9999999905912</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905776</v>
       </c>
     </row>
   </sheetData>
@@ -3142,40 +3142,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.473903143471385E-15</v>
+        <v>-1.421085471520858E-14</v>
       </c>
       <c r="O2">
-        <v>-5.92129177606192E-15</v>
+        <v>-1.539519464324371E-14</v>
       </c>
       <c r="P2">
-        <v>-7.105530247957143E-15</v>
+        <v>4.736848408521008E-15</v>
       </c>
       <c r="Q2">
-        <v>4.736951571735751E-15</v>
+        <v>9.473903143472849E-15</v>
       </c>
       <c r="R2">
-        <v>7.106209196772966E-15</v>
+        <v>1.776434995522498E-14</v>
       </c>
       <c r="S2">
-        <v>9.474685566908042E-15</v>
+        <v>-2.367693088276603E-15</v>
       </c>
       <c r="T2">
-        <v>-1.174291235863038E-28</v>
+        <v>1.894780628694317E-14</v>
       </c>
       <c r="U2">
-        <v>4.763118490472593E-09</v>
+        <v>4.763120858947886E-09</v>
       </c>
       <c r="V2">
-        <v>-4.763113757011744E-09</v>
+        <v>-4.763118493962823E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571735634E-15</v>
+        <v>-2.368475785867929E-14</v>
       </c>
       <c r="X2">
-        <v>-4.763116121595246E-09</v>
+        <v>-4.763120858546322E-09</v>
       </c>
       <c r="Y2">
-        <v>4.763118494364883E-09</v>
+        <v>4.763113757412816E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3196,40 +3196,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000000357</v>
+        <v>1.000000000000409</v>
       </c>
       <c r="AG2">
-        <v>0.4999999998169617</v>
+        <v>0.49999999981691</v>
       </c>
       <c r="AH2">
-        <v>0.5000000001833943</v>
+        <v>0.5000000001833425</v>
       </c>
       <c r="AI2">
-        <v>1.000000000000357</v>
+        <v>1.000000000000409</v>
       </c>
       <c r="AJ2">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997747568</v>
       </c>
       <c r="AK2">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002254961</v>
       </c>
       <c r="AL2">
-        <v>7.101817562966736E-13</v>
+        <v>2.328100275584076E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.999999998762</v>
+        <v>-179.9999999987652</v>
       </c>
       <c r="AN2">
-        <v>179.999999998755</v>
+        <v>179.9999999987517</v>
       </c>
       <c r="AO2">
-        <v>7.168607910624874E-13</v>
+        <v>2.361236020210145E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999905879</v>
+        <v>-179.9999999905912</v>
       </c>
       <c r="AQ2">
-        <v>179.999999990581</v>
+        <v>179.9999999905776</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3273,40 +3273,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-7.105427357603596E-15</v>
+        <v>3.928462527123185E-28</v>
       </c>
       <c r="O3">
-        <v>-1.183901772591708E-15</v>
+        <v>3.553049703655291E-15</v>
       </c>
       <c r="P3">
-        <v>2.368812096146955E-15</v>
+        <v>3.364029750978355E-19</v>
       </c>
       <c r="Q3">
-        <v>4.736951571735751E-15</v>
+        <v>-2.368475785868359E-15</v>
       </c>
       <c r="R3">
-        <v>2.368215167566046E-15</v>
+        <v>-1.184498415993109E-15</v>
       </c>
       <c r="S3">
-        <v>4.736690766444529E-15</v>
+        <v>7.105166460733706E-15</v>
       </c>
       <c r="T3">
-        <v>4.736951571735604E-15</v>
+        <v>-9.473903143471869E-15</v>
       </c>
       <c r="U3">
-        <v>-1.587712479247819E-09</v>
+        <v>-1.58771011077187E-09</v>
       </c>
       <c r="V3">
-        <v>1.587707743816771E-09</v>
+        <v>1.587703006865033E-09</v>
       </c>
       <c r="W3">
-        <v>-4.736951571735634E-15</v>
+        <v>9.473903143471776E-15</v>
       </c>
       <c r="X3">
-        <v>1.587724321671361E-09</v>
+        <v>1.587710110816488E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.587712480723728E-09</v>
+        <v>-1.587707743771989E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3327,40 +3327,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AG3">
-        <v>0.4999999997607573</v>
+        <v>0.499999999760706</v>
       </c>
       <c r="AH3">
-        <v>0.5000000002395995</v>
+        <v>0.5000000002395477</v>
       </c>
       <c r="AI3">
-        <v>1.000000000000357</v>
+        <v>1.000000000000409</v>
       </c>
       <c r="AJ3">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997747568</v>
       </c>
       <c r="AK3">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002254961</v>
       </c>
       <c r="AL3">
-        <v>7.063882515190411E-13</v>
+        <v>2.375835169209479E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999878632</v>
+        <v>-179.9999999878665</v>
       </c>
       <c r="AN3">
-        <v>179.9999999878563</v>
+        <v>179.9999999878528</v>
       </c>
       <c r="AO3">
-        <v>7.168607910624874E-13</v>
+        <v>2.361236020210145E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999905879</v>
+        <v>-179.9999999905912</v>
       </c>
       <c r="AQ3">
-        <v>179.999999990581</v>
+        <v>179.9999999905776</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3404,40 +3404,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.421085471520713E-14</v>
+        <v>3.928462527123185E-28</v>
       </c>
       <c r="O4">
-        <v>8.290001369053892E-15</v>
+        <v>3.553049703655291E-15</v>
       </c>
       <c r="P4">
-        <v>7.105763672510212E-15</v>
+        <v>3.364029750978355E-19</v>
       </c>
       <c r="Q4">
-        <v>-1.657933050107492E-14</v>
+        <v>-2.368475785868359E-15</v>
       </c>
       <c r="R4">
-        <v>-7.10568797163507E-15</v>
+        <v>-1.184498415993109E-15</v>
       </c>
       <c r="S4">
-        <v>-2.608089825354682E-19</v>
+        <v>7.105166460733706E-15</v>
       </c>
       <c r="T4">
-        <v>-4.736951571735515E-15</v>
+        <v>-9.473903143471869E-15</v>
       </c>
       <c r="U4">
-        <v>-1.587721953150956E-09</v>
+        <v>-1.58771011077187E-09</v>
       </c>
       <c r="V4">
-        <v>1.587717217719919E-09</v>
+        <v>1.587703006865033E-09</v>
       </c>
       <c r="W4">
-        <v>-2.074336378576325E-28</v>
+        <v>9.473903143471776E-15</v>
       </c>
       <c r="X4">
-        <v>1.587724321671359E-09</v>
+        <v>1.587710110816488E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.587721954626874E-09</v>
+        <v>-1.587707743771989E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3458,40 +3458,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000000357</v>
+        <v>1.000000000000408</v>
       </c>
       <c r="AG4">
-        <v>0.4999999997607573</v>
+        <v>0.499999999760706</v>
       </c>
       <c r="AH4">
-        <v>0.5000000002395996</v>
+        <v>0.5000000002395477</v>
       </c>
       <c r="AI4">
-        <v>1.000000000000357</v>
+        <v>1.000000000000409</v>
       </c>
       <c r="AJ4">
-        <v>0.4999999997748084</v>
+        <v>0.4999999997747568</v>
       </c>
       <c r="AK4">
-        <v>0.5000000002255481</v>
+        <v>0.5000000002254961</v>
       </c>
       <c r="AL4">
-        <v>7.13313644437706E-13</v>
+        <v>2.375835169209479E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999878631</v>
+        <v>-179.9999999878665</v>
       </c>
       <c r="AN4">
-        <v>179.9999999878563</v>
+        <v>179.9999999878528</v>
       </c>
       <c r="AO4">
-        <v>7.168607910624874E-13</v>
+        <v>2.361236020210145E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999905879</v>
+        <v>-179.9999999905912</v>
       </c>
       <c r="AQ4">
-        <v>179.999999990581</v>
+        <v>179.9999999905776</v>
       </c>
     </row>
   </sheetData>
@@ -3679,40 +3679,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.36847578588079E-15</v>
+        <v>-7.105427357642864E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559634061250688E-10</v>
+        <v>-5.559682840888565E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551459837822061E-09</v>
+        <v>-1.551455958259421E-09</v>
       </c>
       <c r="Q2">
-        <v>-2.368475785880691E-15</v>
+        <v>2.368475785881217E-15</v>
       </c>
       <c r="R2">
-        <v>5.559693762172179E-10</v>
+        <v>5.559683187363138E-10</v>
       </c>
       <c r="S2">
-        <v>1.551463717864591E-09</v>
+        <v>1.551461202719313E-09</v>
       </c>
       <c r="T2">
-        <v>4.736951571761458E-15</v>
+        <v>7.105427357642351E-15</v>
       </c>
       <c r="U2">
-        <v>4.833146696288446E-09</v>
+        <v>4.833148470145144E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10888915612577E-09</v>
+        <v>-3.10889052054267E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571761505E-15</v>
+        <v>-9.473903143523391E-15</v>
       </c>
       <c r="X2">
-        <v>-4.833140794727989E-09</v>
+        <v>-4.833142534416959E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108887791991908E-09</v>
+        <v>3.108893035971602E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3733,40 +3733,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005856</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891383</v>
+        <v>0.6078088903890794</v>
       </c>
       <c r="AH2">
-        <v>0.434087010414059</v>
+        <v>0.4340870104140163</v>
       </c>
       <c r="AI2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005856</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903607423</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104724707</v>
       </c>
       <c r="AL2">
-        <v>5.890989761634251E-13</v>
+        <v>2.071619127989788E-12</v>
       </c>
       <c r="AM2">
-        <v>-166.2935793302449</v>
+        <v>-166.2935793302461</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346805</v>
+        <v>160.6235536346749</v>
       </c>
       <c r="AO2">
-        <v>5.979348424895735E-13</v>
+        <v>2.101843771350125E-12</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242517</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296895</v>
+        <v>160.6235536296838</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3810,40 +3810,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-7.105427357642171E-15</v>
+        <v>-7.105427357642256E-15</v>
       </c>
       <c r="O3">
-        <v>1.853220451998118E-10</v>
+        <v>1.853200327414453E-10</v>
       </c>
       <c r="P3">
-        <v>5.171542603285709E-10</v>
+        <v>5.171562001100213E-10</v>
       </c>
       <c r="Q3">
-        <v>2.368475785880691E-15</v>
+        <v>2.368475785880608E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853175082869057E-10</v>
+        <v>-1.853213629377751E-10</v>
       </c>
       <c r="S3">
-        <v>-5.1715232049387E-10</v>
+        <v>-5.171542602753194E-10</v>
       </c>
       <c r="T3">
-        <v>-4.736951571761553E-15</v>
+        <v>-9.473903143523735E-15</v>
       </c>
       <c r="U3">
-        <v>-1.61105262819705E-09</v>
+        <v>-1.611038301241686E-09</v>
       </c>
       <c r="V3">
-        <v>1.036303306245034E-09</v>
+        <v>1.036302624036201E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761505E-15</v>
+        <v>7.105427357642695E-15</v>
       </c>
       <c r="X3">
-        <v>1.611052252956482E-09</v>
+        <v>1.611049831058223E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036303988422214E-09</v>
+        <v>-1.03630330621338E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -3864,40 +3864,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005855</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903512967</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919983</v>
+        <v>0.4340870104919558</v>
       </c>
       <c r="AI3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005856</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903607423</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104724707</v>
       </c>
       <c r="AL3">
-        <v>5.886568762626629E-13</v>
+        <v>2.111149627742288E-12</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222536</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280259</v>
+        <v>160.6235536280201</v>
       </c>
       <c r="AO3">
-        <v>5.979348424895735E-13</v>
+        <v>2.101843771350125E-12</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242517</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296895</v>
+        <v>160.6235536296838</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3941,40 +3941,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.368475785880716E-15</v>
+        <v>-7.105427357642256E-15</v>
       </c>
       <c r="O4">
-        <v>1.853317327922415E-10</v>
+        <v>1.853200327414453E-10</v>
       </c>
       <c r="P4">
-        <v>5.171517451831368E-10</v>
+        <v>5.171562001100213E-10</v>
       </c>
       <c r="Q4">
-        <v>-7.105427357642196E-15</v>
+        <v>2.368475785880608E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853313574668689E-10</v>
+        <v>-1.853213629377751E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171531095471927E-10</v>
+        <v>-5.171542602753194E-10</v>
       </c>
       <c r="T4">
-        <v>2.368475785880764E-15</v>
+        <v>-9.473903143523735E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611068046800736E-09</v>
+        <v>-1.611038301241686E-09</v>
       </c>
       <c r="V4">
-        <v>1.036308550225189E-09</v>
+        <v>1.036302624036201E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880815E-15</v>
+        <v>7.105427357642695E-15</v>
       </c>
       <c r="X4">
-        <v>1.611072583691837E-09</v>
+        <v>1.611049831058223E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036312429756483E-09</v>
+        <v>-1.03630330621338E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -3995,40 +3995,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005855</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513558</v>
+        <v>0.6078088903512967</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919558</v>
       </c>
       <c r="AI4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005856</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903607423</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104724707</v>
       </c>
       <c r="AL4">
-        <v>5.886571720720432E-13</v>
+        <v>2.111149627742288E-12</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222536</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280258</v>
+        <v>160.6235536280201</v>
       </c>
       <c r="AO4">
-        <v>5.979348424895735E-13</v>
+        <v>2.101843771350125E-12</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242517</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296895</v>
+        <v>160.6235536296838</v>
       </c>
     </row>
   </sheetData>
@@ -4216,40 +4216,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.36847578588079E-15</v>
+        <v>-7.105427357642864E-15</v>
       </c>
       <c r="O2">
-        <v>-5.559634061250688E-10</v>
+        <v>-5.559682840888565E-10</v>
       </c>
       <c r="P2">
-        <v>-1.551459837822061E-09</v>
+        <v>-1.551455958259421E-09</v>
       </c>
       <c r="Q2">
-        <v>-2.368475785880691E-15</v>
+        <v>2.368475785881217E-15</v>
       </c>
       <c r="R2">
-        <v>5.559693762172179E-10</v>
+        <v>5.559683187363138E-10</v>
       </c>
       <c r="S2">
-        <v>1.551463717864591E-09</v>
+        <v>1.551461202719313E-09</v>
       </c>
       <c r="T2">
-        <v>4.736951571761458E-15</v>
+        <v>7.105427357642351E-15</v>
       </c>
       <c r="U2">
-        <v>4.833146696288446E-09</v>
+        <v>4.833148470145144E-09</v>
       </c>
       <c r="V2">
-        <v>-3.10888915612577E-09</v>
+        <v>-3.10889052054267E-09</v>
       </c>
       <c r="W2">
-        <v>-4.736951571761505E-15</v>
+        <v>-9.473903143523391E-15</v>
       </c>
       <c r="X2">
-        <v>-4.833140794727989E-09</v>
+        <v>-4.833142534416959E-09</v>
       </c>
       <c r="Y2">
-        <v>3.108887791991908E-09</v>
+        <v>3.108893035971602E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4270,40 +4270,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005856</v>
       </c>
       <c r="AG2">
-        <v>0.6078088903891383</v>
+        <v>0.6078088903890794</v>
       </c>
       <c r="AH2">
-        <v>0.434087010414059</v>
+        <v>0.4340870104140163</v>
       </c>
       <c r="AI2">
-        <v>1.000000000005801</v>
+        <v>1.000000000005856</v>
       </c>
       <c r="AJ2">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903607423</v>
       </c>
       <c r="AK2">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104724707</v>
       </c>
       <c r="AL2">
-        <v>5.890989761634251E-13</v>
+        <v>2.071619127989788E-12</v>
       </c>
       <c r="AM2">
-        <v>-166.2935793302449</v>
+        <v>-166.2935793302461</v>
       </c>
       <c r="AN2">
-        <v>160.6235536346805</v>
+        <v>160.6235536346749</v>
       </c>
       <c r="AO2">
-        <v>5.979348424895735E-13</v>
+        <v>2.101843771350125E-12</v>
       </c>
       <c r="AP2">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242517</v>
       </c>
       <c r="AQ2">
-        <v>160.6235536296895</v>
+        <v>160.6235536296838</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4347,40 +4347,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-7.105427357642171E-15</v>
+        <v>-7.105427357642256E-15</v>
       </c>
       <c r="O3">
-        <v>1.853220451998118E-10</v>
+        <v>1.853200327414453E-10</v>
       </c>
       <c r="P3">
-        <v>5.171542603285709E-10</v>
+        <v>5.171562001100213E-10</v>
       </c>
       <c r="Q3">
-        <v>2.368475785880691E-15</v>
+        <v>2.368475785880608E-15</v>
       </c>
       <c r="R3">
-        <v>-1.853175082869057E-10</v>
+        <v>-1.853213629377751E-10</v>
       </c>
       <c r="S3">
-        <v>-5.1715232049387E-10</v>
+        <v>-5.171542602753194E-10</v>
       </c>
       <c r="T3">
-        <v>-4.736951571761553E-15</v>
+        <v>-9.473903143523735E-15</v>
       </c>
       <c r="U3">
-        <v>-1.61105262819705E-09</v>
+        <v>-1.611038301241686E-09</v>
       </c>
       <c r="V3">
-        <v>1.036303306245034E-09</v>
+        <v>1.036302624036201E-09</v>
       </c>
       <c r="W3">
-        <v>4.736951571761505E-15</v>
+        <v>7.105427357642695E-15</v>
       </c>
       <c r="X3">
-        <v>1.611052252956482E-09</v>
+        <v>1.611049831058223E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.036303988422214E-09</v>
+        <v>-1.03630330621338E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4401,40 +4401,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005855</v>
       </c>
       <c r="AG3">
-        <v>0.6078088903513557</v>
+        <v>0.6078088903512967</v>
       </c>
       <c r="AH3">
-        <v>0.4340870104919983</v>
+        <v>0.4340870104919558</v>
       </c>
       <c r="AI3">
-        <v>1.000000000005801</v>
+        <v>1.000000000005856</v>
       </c>
       <c r="AJ3">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903607423</v>
       </c>
       <c r="AK3">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104724707</v>
       </c>
       <c r="AL3">
-        <v>5.886568762626629E-13</v>
+        <v>2.111149627742288E-12</v>
       </c>
       <c r="AM3">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222536</v>
       </c>
       <c r="AN3">
-        <v>160.6235536280259</v>
+        <v>160.6235536280201</v>
       </c>
       <c r="AO3">
-        <v>5.979348424895735E-13</v>
+        <v>2.101843771350125E-12</v>
       </c>
       <c r="AP3">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242517</v>
       </c>
       <c r="AQ3">
-        <v>160.6235536296895</v>
+        <v>160.6235536296838</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4478,40 +4478,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.368475785880716E-15</v>
+        <v>-7.105427357642256E-15</v>
       </c>
       <c r="O4">
-        <v>1.853317327922415E-10</v>
+        <v>1.853200327414453E-10</v>
       </c>
       <c r="P4">
-        <v>5.171517451831368E-10</v>
+        <v>5.171562001100213E-10</v>
       </c>
       <c r="Q4">
-        <v>-7.105427357642196E-15</v>
+        <v>2.368475785880608E-15</v>
       </c>
       <c r="R4">
-        <v>-1.853313574668689E-10</v>
+        <v>-1.853213629377751E-10</v>
       </c>
       <c r="S4">
-        <v>-5.171531095471927E-10</v>
+        <v>-5.171542602753194E-10</v>
       </c>
       <c r="T4">
-        <v>2.368475785880764E-15</v>
+        <v>-9.473903143523735E-15</v>
       </c>
       <c r="U4">
-        <v>-1.611068046800736E-09</v>
+        <v>-1.611038301241686E-09</v>
       </c>
       <c r="V4">
-        <v>1.036308550225189E-09</v>
+        <v>1.036302624036201E-09</v>
       </c>
       <c r="W4">
-        <v>-2.368475785880815E-15</v>
+        <v>7.105427357642695E-15</v>
       </c>
       <c r="X4">
-        <v>1.611072583691837E-09</v>
+        <v>1.611049831058223E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.036312429756483E-09</v>
+        <v>-1.03630330621338E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -4532,40 +4532,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005855</v>
       </c>
       <c r="AG4">
-        <v>0.6078088903513558</v>
+        <v>0.6078088903512967</v>
       </c>
       <c r="AH4">
-        <v>0.4340870104919984</v>
+        <v>0.4340870104919558</v>
       </c>
       <c r="AI4">
-        <v>1.000000000005801</v>
+        <v>1.000000000005856</v>
       </c>
       <c r="AJ4">
-        <v>0.6078088903608012</v>
+        <v>0.6078088903607423</v>
       </c>
       <c r="AK4">
-        <v>0.4340870104725135</v>
+        <v>0.4340870104724707</v>
       </c>
       <c r="AL4">
-        <v>5.886571720720432E-13</v>
+        <v>2.111149627742288E-12</v>
       </c>
       <c r="AM4">
-        <v>-166.2935793222523</v>
+        <v>-166.2935793222536</v>
       </c>
       <c r="AN4">
-        <v>160.6235536280258</v>
+        <v>160.6235536280201</v>
       </c>
       <c r="AO4">
-        <v>5.979348424895735E-13</v>
+        <v>2.101843771350125E-12</v>
       </c>
       <c r="AP4">
-        <v>-166.2935793242505</v>
+        <v>-166.2935793242517</v>
       </c>
       <c r="AQ4">
-        <v>160.6235536296895</v>
+        <v>160.6235536296838</v>
       </c>
     </row>
   </sheetData>
@@ -4756,40 +4756,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.948863939231875E-09</v>
+        <v>-2.948864352748431E-09</v>
       </c>
       <c r="O2">
-        <v>-7.361108608868004E-10</v>
+        <v>-7.360771113045888E-10</v>
       </c>
       <c r="P2">
-        <v>-7.38325857310328E-10</v>
+        <v>-7.383782752587878E-10</v>
       </c>
       <c r="Q2">
-        <v>2.948864364899041E-09</v>
+        <v>2.948863919833369E-09</v>
       </c>
       <c r="R2">
-        <v>7.36093887718208E-10</v>
+        <v>7.360558408755586E-10</v>
       </c>
       <c r="S2">
-        <v>7.383303694094561E-10</v>
+        <v>7.383909481911965E-10</v>
       </c>
       <c r="T2">
-        <v>-2.618910895279132E-12</v>
+        <v>-2.649124461000747E-12</v>
       </c>
       <c r="U2">
-        <v>-3.854459686969427E-09</v>
+        <v>-3.854454446955885E-09</v>
       </c>
       <c r="V2">
-        <v>3.853124448217782E-09</v>
+        <v>3.85310506529968E-09</v>
       </c>
       <c r="W2">
-        <v>2.629270291448903E-12</v>
+        <v>2.65171420402423E-12</v>
       </c>
       <c r="X2">
-        <v>3.854468781328352E-09</v>
+        <v>3.854465532819575E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.853123584908041E-09</v>
+        <v>-3.85309796347999E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -4810,40 +4810,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3644696238511731</v>
+        <v>0.3644696238513032</v>
       </c>
       <c r="AH2">
-        <v>0.9700090737384334</v>
+        <v>0.970009073738315</v>
       </c>
       <c r="AI2">
-        <v>0.969794580847491</v>
+        <v>0.969794580847561</v>
       </c>
       <c r="AJ2">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238828894</v>
       </c>
       <c r="AK2">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737588577</v>
       </c>
       <c r="AL2">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808329496</v>
       </c>
       <c r="AM2">
-        <v>0.03433038499314061</v>
+        <v>0.03433038500811106</v>
       </c>
       <c r="AN2">
-        <v>-100.8284562165842</v>
+        <v>-100.8284562165778</v>
       </c>
       <c r="AO2">
-        <v>100.8308801221831</v>
+        <v>100.8308801221746</v>
       </c>
       <c r="AP2">
-        <v>0.03433039061688672</v>
+        <v>0.03433039063184284</v>
       </c>
       <c r="AQ2">
-        <v>-100.8284562173012</v>
+        <v>-100.8284562172948</v>
       </c>
       <c r="AR2">
-        <v>100.8308801232976</v>
+        <v>100.8308801232891</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -4887,40 +4887,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.829534893341949E-10</v>
+        <v>9.829496063182873E-10</v>
       </c>
       <c r="O3">
-        <v>2.453676972786625E-10</v>
+        <v>2.453326906931774E-10</v>
       </c>
       <c r="P3">
-        <v>2.461266672730184E-10</v>
+        <v>2.461464418887024E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.829530597560996E-10</v>
+        <v>-9.829500394602834E-10</v>
       </c>
       <c r="R3">
-        <v>-2.453674814622398E-10</v>
+        <v>-2.453539611789419E-10</v>
       </c>
       <c r="S3">
-        <v>-2.461238817052723E-10</v>
+        <v>-2.461427930836321E-10</v>
       </c>
       <c r="T3">
-        <v>8.833285854094425E-13</v>
+        <v>8.80736546146093E-13</v>
       </c>
       <c r="U3">
-        <v>1.284806356479356E-09</v>
+        <v>1.284843460568637E-09</v>
       </c>
       <c r="V3">
-        <v>-1.284371363091113E-09</v>
+        <v>-1.284376934212552E-09</v>
       </c>
       <c r="W3">
-        <v>-8.798753453121851E-13</v>
+        <v>-8.781470606051765E-13</v>
       </c>
       <c r="X3">
-        <v>-1.284805228203867E-09</v>
+        <v>-1.284832374769318E-09</v>
       </c>
       <c r="Y3">
-        <v>1.284381250407088E-09</v>
+        <v>1.284382309493225E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -4941,40 +4941,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3644696238932878</v>
+        <v>0.3644696238934177</v>
       </c>
       <c r="AH3">
-        <v>0.970009073765824</v>
+        <v>0.9700090737657051</v>
       </c>
       <c r="AI3">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280793</v>
       </c>
       <c r="AJ3">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238828894</v>
       </c>
       <c r="AK3">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737588577</v>
       </c>
       <c r="AL3">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808329496</v>
       </c>
       <c r="AM3">
-        <v>0.03433039249144968</v>
+        <v>0.03433039250646006</v>
       </c>
       <c r="AN3">
-        <v>-100.8284562175402</v>
+        <v>-100.8284562175338</v>
       </c>
       <c r="AO3">
-        <v>100.8308801236691</v>
+        <v>100.8308801236606</v>
       </c>
       <c r="AP3">
-        <v>0.03433039061688672</v>
+        <v>0.03433039063184284</v>
       </c>
       <c r="AQ3">
-        <v>-100.8284562173012</v>
+        <v>-100.8284562172948</v>
       </c>
       <c r="AR3">
-        <v>100.8308801232976</v>
+        <v>100.8308801232891</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5018,40 +5018,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.829500405227651E-10</v>
+        <v>9.829496063182873E-10</v>
       </c>
       <c r="O4">
-        <v>2.453586711391252E-10</v>
+        <v>2.453326906931774E-10</v>
       </c>
       <c r="P4">
-        <v>2.461068926571617E-10</v>
+        <v>2.461464418887024E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.829565168432605E-10</v>
+        <v>-9.829500394602834E-10</v>
       </c>
       <c r="R4">
-        <v>-2.453584553227027E-10</v>
+        <v>-2.453539611789419E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46102380614768E-10</v>
+        <v>-2.461427930836321E-10</v>
       </c>
       <c r="T4">
-        <v>8.764206178853519E-13</v>
+        <v>8.80736546146093E-13</v>
       </c>
       <c r="U4">
-        <v>1.284808082954004E-09</v>
+        <v>1.284843460568637E-09</v>
       </c>
       <c r="V4">
-        <v>-1.284365791969805E-09</v>
+        <v>-1.284376934212552E-09</v>
       </c>
       <c r="W4">
-        <v>-8.729715156537504E-13</v>
+        <v>-8.781470606051765E-13</v>
       </c>
       <c r="X4">
-        <v>-1.284806954678515E-09</v>
+        <v>-1.284832374769318E-09</v>
       </c>
       <c r="Y4">
-        <v>1.284366655215175E-09</v>
+        <v>1.284382309493225E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5072,40 +5072,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3644696238932878</v>
+        <v>0.3644696238934177</v>
       </c>
       <c r="AH4">
-        <v>0.970009073765824</v>
+        <v>0.9700090737657051</v>
       </c>
       <c r="AI4">
-        <v>0.9697945808280083</v>
+        <v>0.9697945808280793</v>
       </c>
       <c r="AJ4">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238828894</v>
       </c>
       <c r="AK4">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737588577</v>
       </c>
       <c r="AL4">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808329496</v>
       </c>
       <c r="AM4">
-        <v>0.03433039249145395</v>
+        <v>0.03433039250646006</v>
       </c>
       <c r="AN4">
-        <v>-100.8284562175402</v>
+        <v>-100.8284562175338</v>
       </c>
       <c r="AO4">
-        <v>100.8308801236691</v>
+        <v>100.8308801236606</v>
       </c>
       <c r="AP4">
-        <v>0.03433039061688672</v>
+        <v>0.03433039063184284</v>
       </c>
       <c r="AQ4">
-        <v>-100.8284562173012</v>
+        <v>-100.8284562172948</v>
       </c>
       <c r="AR4">
-        <v>100.8308801232976</v>
+        <v>100.8308801232891</v>
       </c>
     </row>
   </sheetData>
@@ -5296,40 +5296,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.948863939231875E-09</v>
+        <v>-2.948864352748431E-09</v>
       </c>
       <c r="O2">
-        <v>-7.361108608868004E-10</v>
+        <v>-7.360771113045888E-10</v>
       </c>
       <c r="P2">
-        <v>-7.38325857310328E-10</v>
+        <v>-7.383782752587878E-10</v>
       </c>
       <c r="Q2">
-        <v>2.948864364899041E-09</v>
+        <v>2.948863919833369E-09</v>
       </c>
       <c r="R2">
-        <v>7.36093887718208E-10</v>
+        <v>7.360558408755586E-10</v>
       </c>
       <c r="S2">
-        <v>7.383303694094561E-10</v>
+        <v>7.383909481911965E-10</v>
       </c>
       <c r="T2">
-        <v>-2.618910895279132E-12</v>
+        <v>-2.649124461000747E-12</v>
       </c>
       <c r="U2">
-        <v>-3.854459686969427E-09</v>
+        <v>-3.854454446955885E-09</v>
       </c>
       <c r="V2">
-        <v>3.853124448217782E-09</v>
+        <v>3.85310506529968E-09</v>
       </c>
       <c r="W2">
-        <v>2.629270291448903E-12</v>
+        <v>2.65171420402423E-12</v>
       </c>
       <c r="X2">
-        <v>3.854468781328352E-09</v>
+        <v>3.854465532819575E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.853123584908041E-09</v>
+        <v>-3.85309796347999E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5350,40 +5350,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3644696238511731</v>
+        <v>0.3644696238513032</v>
       </c>
       <c r="AH2">
-        <v>0.9700090737384334</v>
+        <v>0.970009073738315</v>
       </c>
       <c r="AI2">
-        <v>0.969794580847491</v>
+        <v>0.969794580847561</v>
       </c>
       <c r="AJ2">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238828894</v>
       </c>
       <c r="AK2">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737588577</v>
       </c>
       <c r="AL2">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808329496</v>
       </c>
       <c r="AM2">
-        <v>0.03433038499314061</v>
+        <v>0.03433038500811106</v>
       </c>
       <c r="AN2">
-        <v>-100.8284562165842</v>
+        <v>-100.8284562165778</v>
       </c>
       <c r="AO2">
-        <v>100.8308801221831</v>
+        <v>100.8308801221746</v>
       </c>
       <c r="AP2">
-        <v>0.03433039061688672</v>
+        <v>0.03433039063184284</v>
       </c>
       <c r="AQ2">
-        <v>-100.8284562173012</v>
+        <v>-100.8284562172948</v>
       </c>
       <c r="AR2">
-        <v>100.8308801232976</v>
+        <v>100.8308801232891</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5427,40 +5427,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.829534893341949E-10</v>
+        <v>9.829496063182873E-10</v>
       </c>
       <c r="O3">
-        <v>2.453676972786625E-10</v>
+        <v>2.453326906931774E-10</v>
       </c>
       <c r="P3">
-        <v>2.461266672730184E-10</v>
+        <v>2.461464418887024E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.829530597560996E-10</v>
+        <v>-9.829500394602834E-10</v>
       </c>
       <c r="R3">
-        <v>-2.453674814622398E-10</v>
+        <v>-2.453539611789419E-10</v>
       </c>
       <c r="S3">
-        <v>-2.461238817052723E-10</v>
+        <v>-2.461427930836321E-10</v>
       </c>
       <c r="T3">
-        <v>8.833285854094425E-13</v>
+        <v>8.80736546146093E-13</v>
       </c>
       <c r="U3">
-        <v>1.284806356479356E-09</v>
+        <v>1.284843460568637E-09</v>
       </c>
       <c r="V3">
-        <v>-1.284371363091113E-09</v>
+        <v>-1.284376934212552E-09</v>
       </c>
       <c r="W3">
-        <v>-8.798753453121851E-13</v>
+        <v>-8.781470606051765E-13</v>
       </c>
       <c r="X3">
-        <v>-1.284805228203867E-09</v>
+        <v>-1.284832374769318E-09</v>
       </c>
       <c r="Y3">
-        <v>1.284381250407088E-09</v>
+        <v>1.284382309493225E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -5481,40 +5481,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.3644696238932878</v>
+        <v>0.3644696238934177</v>
       </c>
       <c r="AH3">
-        <v>0.970009073765824</v>
+        <v>0.9700090737657051</v>
       </c>
       <c r="AI3">
-        <v>0.9697945808280084</v>
+        <v>0.9697945808280793</v>
       </c>
       <c r="AJ3">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238828894</v>
       </c>
       <c r="AK3">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737588577</v>
       </c>
       <c r="AL3">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808329496</v>
       </c>
       <c r="AM3">
-        <v>0.03433039249144968</v>
+        <v>0.03433039250646006</v>
       </c>
       <c r="AN3">
-        <v>-100.8284562175402</v>
+        <v>-100.8284562175338</v>
       </c>
       <c r="AO3">
-        <v>100.8308801236691</v>
+        <v>100.8308801236606</v>
       </c>
       <c r="AP3">
-        <v>0.03433039061688672</v>
+        <v>0.03433039063184284</v>
       </c>
       <c r="AQ3">
-        <v>-100.8284562173012</v>
+        <v>-100.8284562172948</v>
       </c>
       <c r="AR3">
-        <v>100.8308801232976</v>
+        <v>100.8308801232891</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -5558,40 +5558,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.829500405227651E-10</v>
+        <v>9.829496063182873E-10</v>
       </c>
       <c r="O4">
-        <v>2.453586711391252E-10</v>
+        <v>2.453326906931774E-10</v>
       </c>
       <c r="P4">
-        <v>2.461068926571617E-10</v>
+        <v>2.461464418887024E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.829565168432605E-10</v>
+        <v>-9.829500394602834E-10</v>
       </c>
       <c r="R4">
-        <v>-2.453584553227027E-10</v>
+        <v>-2.453539611789419E-10</v>
       </c>
       <c r="S4">
-        <v>-2.46102380614768E-10</v>
+        <v>-2.461427930836321E-10</v>
       </c>
       <c r="T4">
-        <v>8.764206178853519E-13</v>
+        <v>8.80736546146093E-13</v>
       </c>
       <c r="U4">
-        <v>1.284808082954004E-09</v>
+        <v>1.284843460568637E-09</v>
       </c>
       <c r="V4">
-        <v>-1.284365791969805E-09</v>
+        <v>-1.284376934212552E-09</v>
       </c>
       <c r="W4">
-        <v>-8.729715156537504E-13</v>
+        <v>-8.781470606051765E-13</v>
       </c>
       <c r="X4">
-        <v>-1.284806954678515E-09</v>
+        <v>-1.284832374769318E-09</v>
       </c>
       <c r="Y4">
-        <v>1.284366655215175E-09</v>
+        <v>1.284382309493225E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -5612,40 +5612,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.3644696238932878</v>
+        <v>0.3644696238934177</v>
       </c>
       <c r="AH4">
-        <v>0.970009073765824</v>
+        <v>0.9700090737657051</v>
       </c>
       <c r="AI4">
-        <v>0.9697945808280083</v>
+        <v>0.9697945808280793</v>
       </c>
       <c r="AJ4">
-        <v>0.3644696238827592</v>
+        <v>0.3644696238828894</v>
       </c>
       <c r="AK4">
-        <v>0.9700090737589764</v>
+        <v>0.9700090737588577</v>
       </c>
       <c r="AL4">
-        <v>0.9697945808328791</v>
+        <v>0.9697945808329496</v>
       </c>
       <c r="AM4">
-        <v>0.03433039249145395</v>
+        <v>0.03433039250646006</v>
       </c>
       <c r="AN4">
-        <v>-100.8284562175402</v>
+        <v>-100.8284562175338</v>
       </c>
       <c r="AO4">
-        <v>100.8308801236691</v>
+        <v>100.8308801236606</v>
       </c>
       <c r="AP4">
-        <v>0.03433039061688672</v>
+        <v>0.03433039063184284</v>
       </c>
       <c r="AQ4">
-        <v>-100.8284562173012</v>
+        <v>-100.8284562172948</v>
       </c>
       <c r="AR4">
-        <v>100.8308801232976</v>
+        <v>100.8308801232891</v>
       </c>
     </row>
   </sheetData>
@@ -5836,40 +5836,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.139249241493579E-09</v>
+        <v>-3.13925267745725E-09</v>
       </c>
       <c r="O2">
-        <v>-1.400995387478714E-09</v>
+        <v>-1.400984062953157E-09</v>
       </c>
       <c r="P2">
-        <v>-1.686219796577501E-10</v>
+        <v>-1.686641422832582E-10</v>
       </c>
       <c r="Q2">
-        <v>3.139248476705073E-09</v>
+        <v>3.13925627354699E-09</v>
       </c>
       <c r="R2">
-        <v>1.400989016195619E-09</v>
+        <v>1.400969583230503E-09</v>
       </c>
       <c r="S2">
-        <v>1.686291663183064E-10</v>
+        <v>1.686713289438144E-10</v>
       </c>
       <c r="T2">
-        <v>1.422985183143338E-09</v>
+        <v>1.422959732828082E-09</v>
       </c>
       <c r="U2">
-        <v>-2.225727893405556E-09</v>
+        <v>-2.225725837254431E-09</v>
       </c>
       <c r="V2">
-        <v>2.937195445690233E-09</v>
+        <v>2.937188010483797E-09</v>
       </c>
       <c r="W2">
-        <v>-1.422977573267154E-09</v>
+        <v>-1.422960429026509E-09</v>
       </c>
       <c r="X2">
-        <v>2.225726515910573E-09</v>
+        <v>2.225728395038929E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.937193288074692E-09</v>
+        <v>-2.937185852868257E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -5890,40 +5890,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6185866318522062</v>
+        <v>0.6185866318522648</v>
       </c>
       <c r="AH2">
-        <v>0.9439982598637769</v>
+        <v>0.9439982598636832</v>
       </c>
       <c r="AI2">
-        <v>1.056026550193052</v>
+        <v>1.056026550193102</v>
       </c>
       <c r="AJ2">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618777</v>
       </c>
       <c r="AK2">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799043</v>
       </c>
       <c r="AL2">
-        <v>1.056026550181367</v>
+        <v>1.056026550181417</v>
       </c>
       <c r="AM2">
-        <v>-10.95931300975977</v>
+        <v>-10.95931300975172</v>
       </c>
       <c r="AN2">
-        <v>-108.7637340183826</v>
+        <v>-108.7637340183798</v>
       </c>
       <c r="AO2">
-        <v>106.7108886474994</v>
+        <v>106.7108886474945</v>
       </c>
       <c r="AP2">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684078</v>
       </c>
       <c r="AQ2">
-        <v>-108.7637340185421</v>
+        <v>-108.7637340185393</v>
       </c>
       <c r="AR2">
-        <v>106.7108886481263</v>
+        <v>106.7108886481214</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -5967,40 +5967,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046424210019893E-09</v>
+        <v>1.046407969956466E-09</v>
       </c>
       <c r="O3">
-        <v>4.66984322064254E-10</v>
+        <v>4.669829445348428E-10</v>
       </c>
       <c r="P3">
-        <v>5.622553552651437E-11</v>
+        <v>5.623895163104095E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046420335503456E-09</v>
+        <v>-1.046415881074068E-09</v>
       </c>
       <c r="R3">
-        <v>-4.669892549867911E-10</v>
+        <v>-4.669875178605136E-10</v>
       </c>
       <c r="S3">
-        <v>-5.622170159225778E-11</v>
+        <v>-5.622888822246239E-11</v>
       </c>
       <c r="T3">
-        <v>-4.743189602826046E-10</v>
+        <v>-4.74318053986156E-10</v>
       </c>
       <c r="U3">
-        <v>7.419093789612969E-10</v>
+        <v>7.419157502746102E-10</v>
       </c>
       <c r="V3">
-        <v>-9.790736096173733E-10</v>
+        <v>-9.790748047356213E-10</v>
       </c>
       <c r="W3">
-        <v>4.743197023495281E-10</v>
+        <v>4.743195859401923E-10</v>
       </c>
       <c r="X3">
-        <v>-7.419065224685968E-10</v>
+        <v>-7.419118352773569E-10</v>
       </c>
       <c r="Y3">
-        <v>9.790695377280641E-10</v>
+        <v>9.790673801469192E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6021,40 +6021,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6185866318650233</v>
+        <v>0.6185866318650818</v>
       </c>
       <c r="AH3">
-        <v>0.9439982598854053</v>
+        <v>0.9439982598853114</v>
       </c>
       <c r="AI3">
-        <v>1.056026550177472</v>
+        <v>1.056026550177523</v>
       </c>
       <c r="AJ3">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618777</v>
       </c>
       <c r="AK3">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799043</v>
       </c>
       <c r="AL3">
-        <v>1.056026550181367</v>
+        <v>1.056026550181417</v>
       </c>
       <c r="AM3">
-        <v>-10.95931300587851</v>
+        <v>-10.95931300587046</v>
       </c>
       <c r="AN3">
-        <v>-108.7637340185952</v>
+        <v>-108.7637340185925</v>
       </c>
       <c r="AO3">
-        <v>106.7108886483352</v>
+        <v>106.7108886483303</v>
       </c>
       <c r="AP3">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684078</v>
       </c>
       <c r="AQ3">
-        <v>-108.7637340185421</v>
+        <v>-108.7637340185393</v>
       </c>
       <c r="AR3">
-        <v>106.7108886481263</v>
+        <v>106.7108886481214</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6098,40 +6098,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.0464104746456E-09</v>
+        <v>1.046407969956466E-09</v>
       </c>
       <c r="O4">
-        <v>4.66984322064254E-10</v>
+        <v>4.669829445348428E-10</v>
       </c>
       <c r="P4">
-        <v>5.619582654236923E-11</v>
+        <v>5.623895163104095E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046399732442017E-09</v>
+        <v>-1.046415881074068E-09</v>
       </c>
       <c r="R4">
-        <v>-4.669934890050044E-10</v>
+        <v>-4.669875178605136E-10</v>
       </c>
       <c r="S4">
-        <v>-5.619199260811277E-11</v>
+        <v>-5.622888822246239E-11</v>
       </c>
       <c r="T4">
-        <v>-4.743282391077434E-10</v>
+        <v>-4.74318053986156E-10</v>
       </c>
       <c r="U4">
-        <v>7.419093789612969E-10</v>
+        <v>7.419157502746102E-10</v>
       </c>
       <c r="V4">
-        <v>-9.790616372072656E-10</v>
+        <v>-9.790748047356213E-10</v>
       </c>
       <c r="W4">
-        <v>4.743336205872361E-10</v>
+        <v>4.743195859401923E-10</v>
       </c>
       <c r="X4">
-        <v>-7.419050840811324E-10</v>
+        <v>-7.419118352773569E-10</v>
       </c>
       <c r="Y4">
-        <v>9.790575653179566E-10</v>
+        <v>9.790673801469192E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6152,40 +6152,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650818</v>
       </c>
       <c r="AH4">
-        <v>0.9439982598854053</v>
+        <v>0.9439982598853114</v>
       </c>
       <c r="AI4">
-        <v>1.056026550177472</v>
+        <v>1.056026550177523</v>
       </c>
       <c r="AJ4">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618777</v>
       </c>
       <c r="AK4">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799043</v>
       </c>
       <c r="AL4">
-        <v>1.056026550181367</v>
+        <v>1.056026550181417</v>
       </c>
       <c r="AM4">
-        <v>-10.95931300587851</v>
+        <v>-10.95931300587046</v>
       </c>
       <c r="AN4">
-        <v>-108.7637340185952</v>
+        <v>-108.7637340185925</v>
       </c>
       <c r="AO4">
-        <v>106.7108886483352</v>
+        <v>106.7108886483303</v>
       </c>
       <c r="AP4">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684078</v>
       </c>
       <c r="AQ4">
-        <v>-108.7637340185421</v>
+        <v>-108.7637340185393</v>
       </c>
       <c r="AR4">
-        <v>106.7108886481263</v>
+        <v>106.7108886481214</v>
       </c>
     </row>
   </sheetData>
@@ -6601,40 +6601,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-3.139249241493579E-09</v>
+        <v>-3.13925267745725E-09</v>
       </c>
       <c r="O2">
-        <v>-1.400995387478714E-09</v>
+        <v>-1.400984062953157E-09</v>
       </c>
       <c r="P2">
-        <v>-1.686219796577501E-10</v>
+        <v>-1.686641422832582E-10</v>
       </c>
       <c r="Q2">
-        <v>3.139248476705073E-09</v>
+        <v>3.13925627354699E-09</v>
       </c>
       <c r="R2">
-        <v>1.400989016195619E-09</v>
+        <v>1.400969583230503E-09</v>
       </c>
       <c r="S2">
-        <v>1.686291663183064E-10</v>
+        <v>1.686713289438144E-10</v>
       </c>
       <c r="T2">
-        <v>1.422985183143338E-09</v>
+        <v>1.422959732828082E-09</v>
       </c>
       <c r="U2">
-        <v>-2.225727893405556E-09</v>
+        <v>-2.225725837254431E-09</v>
       </c>
       <c r="V2">
-        <v>2.937195445690233E-09</v>
+        <v>2.937188010483797E-09</v>
       </c>
       <c r="W2">
-        <v>-1.422977573267154E-09</v>
+        <v>-1.422960429026509E-09</v>
       </c>
       <c r="X2">
-        <v>2.225726515910573E-09</v>
+        <v>2.225728395038929E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.937193288074692E-09</v>
+        <v>-2.937185852868257E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -6655,40 +6655,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.6185866318522062</v>
+        <v>0.6185866318522648</v>
       </c>
       <c r="AH2">
-        <v>0.9439982598637769</v>
+        <v>0.9439982598636832</v>
       </c>
       <c r="AI2">
-        <v>1.056026550193052</v>
+        <v>1.056026550193102</v>
       </c>
       <c r="AJ2">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618777</v>
       </c>
       <c r="AK2">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799043</v>
       </c>
       <c r="AL2">
-        <v>1.056026550181367</v>
+        <v>1.056026550181417</v>
       </c>
       <c r="AM2">
-        <v>-10.95931300975977</v>
+        <v>-10.95931300975172</v>
       </c>
       <c r="AN2">
-        <v>-108.7637340183826</v>
+        <v>-108.7637340183798</v>
       </c>
       <c r="AO2">
-        <v>106.7108886474994</v>
+        <v>106.7108886474945</v>
       </c>
       <c r="AP2">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684078</v>
       </c>
       <c r="AQ2">
-        <v>-108.7637340185421</v>
+        <v>-108.7637340185393</v>
       </c>
       <c r="AR2">
-        <v>106.7108886481263</v>
+        <v>106.7108886481214</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -6732,40 +6732,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.046424210019893E-09</v>
+        <v>1.046407969956466E-09</v>
       </c>
       <c r="O3">
-        <v>4.66984322064254E-10</v>
+        <v>4.669829445348428E-10</v>
       </c>
       <c r="P3">
-        <v>5.622553552651437E-11</v>
+        <v>5.623895163104095E-11</v>
       </c>
       <c r="Q3">
-        <v>-1.046420335503456E-09</v>
+        <v>-1.046415881074068E-09</v>
       </c>
       <c r="R3">
-        <v>-4.669892549867911E-10</v>
+        <v>-4.669875178605136E-10</v>
       </c>
       <c r="S3">
-        <v>-5.622170159225778E-11</v>
+        <v>-5.622888822246239E-11</v>
       </c>
       <c r="T3">
-        <v>-4.743189602826046E-10</v>
+        <v>-4.74318053986156E-10</v>
       </c>
       <c r="U3">
-        <v>7.419093789612969E-10</v>
+        <v>7.419157502746102E-10</v>
       </c>
       <c r="V3">
-        <v>-9.790736096173733E-10</v>
+        <v>-9.790748047356213E-10</v>
       </c>
       <c r="W3">
-        <v>4.743197023495281E-10</v>
+        <v>4.743195859401923E-10</v>
       </c>
       <c r="X3">
-        <v>-7.419065224685968E-10</v>
+        <v>-7.419118352773569E-10</v>
       </c>
       <c r="Y3">
-        <v>9.790695377280641E-10</v>
+        <v>9.790673801469192E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -6786,40 +6786,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6185866318650233</v>
+        <v>0.6185866318650818</v>
       </c>
       <c r="AH3">
-        <v>0.9439982598854053</v>
+        <v>0.9439982598853114</v>
       </c>
       <c r="AI3">
-        <v>1.056026550177472</v>
+        <v>1.056026550177523</v>
       </c>
       <c r="AJ3">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618777</v>
       </c>
       <c r="AK3">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799043</v>
       </c>
       <c r="AL3">
-        <v>1.056026550181367</v>
+        <v>1.056026550181417</v>
       </c>
       <c r="AM3">
-        <v>-10.95931300587851</v>
+        <v>-10.95931300587046</v>
       </c>
       <c r="AN3">
-        <v>-108.7637340185952</v>
+        <v>-108.7637340185925</v>
       </c>
       <c r="AO3">
-        <v>106.7108886483352</v>
+        <v>106.7108886483303</v>
       </c>
       <c r="AP3">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684078</v>
       </c>
       <c r="AQ3">
-        <v>-108.7637340185421</v>
+        <v>-108.7637340185393</v>
       </c>
       <c r="AR3">
-        <v>106.7108886481263</v>
+        <v>106.7108886481214</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -6863,40 +6863,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.0464104746456E-09</v>
+        <v>1.046407969956466E-09</v>
       </c>
       <c r="O4">
-        <v>4.66984322064254E-10</v>
+        <v>4.669829445348428E-10</v>
       </c>
       <c r="P4">
-        <v>5.619582654236923E-11</v>
+        <v>5.623895163104095E-11</v>
       </c>
       <c r="Q4">
-        <v>-1.046399732442017E-09</v>
+        <v>-1.046415881074068E-09</v>
       </c>
       <c r="R4">
-        <v>-4.669934890050044E-10</v>
+        <v>-4.669875178605136E-10</v>
       </c>
       <c r="S4">
-        <v>-5.619199260811277E-11</v>
+        <v>-5.622888822246239E-11</v>
       </c>
       <c r="T4">
-        <v>-4.743282391077434E-10</v>
+        <v>-4.74318053986156E-10</v>
       </c>
       <c r="U4">
-        <v>7.419093789612969E-10</v>
+        <v>7.419157502746102E-10</v>
       </c>
       <c r="V4">
-        <v>-9.790616372072656E-10</v>
+        <v>-9.790748047356213E-10</v>
       </c>
       <c r="W4">
-        <v>4.743336205872361E-10</v>
+        <v>4.743195859401923E-10</v>
       </c>
       <c r="X4">
-        <v>-7.419050840811324E-10</v>
+        <v>-7.419118352773569E-10</v>
       </c>
       <c r="Y4">
-        <v>9.790575653179566E-10</v>
+        <v>9.790673801469192E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -6917,40 +6917,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6185866318650231</v>
+        <v>0.6185866318650818</v>
       </c>
       <c r="AH4">
-        <v>0.9439982598854053</v>
+        <v>0.9439982598853114</v>
       </c>
       <c r="AI4">
-        <v>1.056026550177472</v>
+        <v>1.056026550177523</v>
       </c>
       <c r="AJ4">
-        <v>0.6185866318618189</v>
+        <v>0.6185866318618777</v>
       </c>
       <c r="AK4">
-        <v>0.9439982598799983</v>
+        <v>0.9439982598799043</v>
       </c>
       <c r="AL4">
-        <v>1.056026550181367</v>
+        <v>1.056026550181417</v>
       </c>
       <c r="AM4">
-        <v>-10.95931300587851</v>
+        <v>-10.95931300587046</v>
       </c>
       <c r="AN4">
-        <v>-108.7637340185952</v>
+        <v>-108.7637340185925</v>
       </c>
       <c r="AO4">
-        <v>106.7108886483352</v>
+        <v>106.7108886483303</v>
       </c>
       <c r="AP4">
-        <v>-10.95931300684882</v>
+        <v>-10.95931300684078</v>
       </c>
       <c r="AQ4">
-        <v>-108.7637340185421</v>
+        <v>-108.7637340185393</v>
       </c>
       <c r="AR4">
-        <v>106.7108886481263</v>
+        <v>106.7108886481214</v>
       </c>
     </row>
   </sheetData>
@@ -7141,40 +7141,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.436062641365466E-09</v>
+        <v>-2.436066563040196E-09</v>
       </c>
       <c r="O2">
-        <v>-6.079245531822523E-10</v>
+        <v>-6.079288976278449E-10</v>
       </c>
       <c r="P2">
-        <v>-6.100898731686337E-10</v>
+        <v>-6.100811869442953E-10</v>
       </c>
       <c r="Q2">
-        <v>2.436064210014149E-09</v>
+        <v>2.436069307871326E-09</v>
       </c>
       <c r="R2">
-        <v>6.079196663082444E-10</v>
+        <v>6.079291848824088E-10</v>
       </c>
       <c r="S2">
-        <v>6.100919241635188E-10</v>
+        <v>6.100788346807675E-10</v>
       </c>
       <c r="T2">
-        <v>-2.481065582971287E-12</v>
+        <v>-2.479500005087269E-12</v>
       </c>
       <c r="U2">
-        <v>-3.186857908134008E-09</v>
+        <v>-3.186852825128902E-09</v>
       </c>
       <c r="V2">
-        <v>3.185578342485843E-09</v>
+        <v>3.185588506363356E-09</v>
       </c>
       <c r="W2">
-        <v>2.481066889241052E-12</v>
+        <v>2.479502111370035E-12</v>
       </c>
       <c r="X2">
-        <v>3.186854589461792E-09</v>
+        <v>3.186843201707072E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.185577950365134E-09</v>
+        <v>-3.185576200942292E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7195,40 +7195,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3310660019364458</v>
+        <v>0.3310660019364333</v>
       </c>
       <c r="AH2">
-        <v>0.8818141464759021</v>
+        <v>0.8818141464760828</v>
       </c>
       <c r="AI2">
-        <v>0.8815929672376953</v>
+        <v>0.881592967237519</v>
       </c>
       <c r="AJ2">
-        <v>0.3310660019915774</v>
+        <v>0.3310660019915654</v>
       </c>
       <c r="AK2">
-        <v>0.881814146497056</v>
+        <v>0.8818141464972367</v>
       </c>
       <c r="AL2">
-        <v>0.881592967226888</v>
+        <v>0.8815929672267115</v>
       </c>
       <c r="AM2">
-        <v>0.03897125580992354</v>
+        <v>0.03897125577851769</v>
       </c>
       <c r="AN2">
-        <v>-100.8196771664425</v>
+        <v>-100.8196771664411</v>
       </c>
       <c r="AO2">
-        <v>100.8224244169423</v>
+        <v>100.8224244169453</v>
       </c>
       <c r="AP2">
-        <v>0.03897126143524871</v>
+        <v>0.03897126140385956</v>
       </c>
       <c r="AQ2">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680012</v>
       </c>
       <c r="AR2">
-        <v>100.8224244188998</v>
+        <v>100.8224244189028</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7272,40 +7272,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.120224485230411E-10</v>
+        <v>8.120342103474328E-10</v>
       </c>
       <c r="O3">
-        <v>2.026443137568246E-10</v>
+        <v>2.026422029837616E-10</v>
       </c>
       <c r="P3">
-        <v>2.033640752228862E-10</v>
+        <v>2.033593704931326E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.120271532077597E-10</v>
+        <v>-8.120283293901726E-10</v>
       </c>
       <c r="R3">
-        <v>-2.026409950134519E-10</v>
+        <v>-2.026426999409223E-10</v>
       </c>
       <c r="S3">
-        <v>-2.033620243180967E-10</v>
+        <v>-2.033617228467562E-10</v>
       </c>
       <c r="T3">
-        <v>8.275457819091896E-13</v>
+        <v>8.275537815864137E-13</v>
       </c>
       <c r="U3">
-        <v>1.06227834719343E-09</v>
+        <v>1.06226173974829E-09</v>
       </c>
       <c r="V3">
-        <v>-1.061863549255717E-09</v>
+        <v>-1.061838938533157E-09</v>
       </c>
       <c r="W3">
-        <v>-8.27548955336164E-13</v>
+        <v>-8.275497549034323E-13</v>
       </c>
       <c r="X3">
-        <v>-1.062283234162142E-09</v>
+        <v>-1.062275466077101E-09</v>
       </c>
       <c r="Y3">
-        <v>1.061863941323186E-09</v>
+        <v>1.06185124390098E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7326,40 +7326,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.331066002009955</v>
+        <v>0.3310660020099438</v>
       </c>
       <c r="AH3">
-        <v>0.8818141465041071</v>
+        <v>0.8818141465042876</v>
       </c>
       <c r="AI3">
-        <v>0.8815929672232857</v>
+        <v>0.8815929672231091</v>
       </c>
       <c r="AJ3">
-        <v>0.3310660019915774</v>
+        <v>0.3310660019915654</v>
       </c>
       <c r="AK3">
-        <v>0.881814146497056</v>
+        <v>0.8818141464972367</v>
       </c>
       <c r="AL3">
-        <v>0.881592967226888</v>
+        <v>0.8815929672267115</v>
       </c>
       <c r="AM3">
-        <v>0.0389712633104158</v>
+        <v>0.03897126327903396</v>
       </c>
       <c r="AN3">
-        <v>-100.8196771685227</v>
+        <v>-100.8196771685212</v>
       </c>
       <c r="AO3">
-        <v>100.8224244195523</v>
+        <v>100.8224244195552</v>
       </c>
       <c r="AP3">
-        <v>0.03897126143524871</v>
+        <v>0.03897126140385956</v>
       </c>
       <c r="AQ3">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680012</v>
       </c>
       <c r="AR3">
-        <v>100.8224244188998</v>
+        <v>100.8224244189028</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7403,40 +7403,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.120193120365294E-10</v>
+        <v>8.120342103474328E-10</v>
       </c>
       <c r="O4">
-        <v>2.026474502433363E-10</v>
+        <v>2.026422029837616E-10</v>
       </c>
       <c r="P4">
-        <v>2.033658246450585E-10</v>
+        <v>2.033593704931326E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.120240167212483E-10</v>
+        <v>-8.120283293901726E-10</v>
       </c>
       <c r="R4">
-        <v>-2.026482343537024E-10</v>
+        <v>-2.026426999409223E-10</v>
       </c>
       <c r="S4">
-        <v>-2.033637737402692E-10</v>
+        <v>-2.033617228467562E-10</v>
       </c>
       <c r="T4">
-        <v>8.275436485433257E-13</v>
+        <v>8.275537815864137E-13</v>
       </c>
       <c r="U4">
-        <v>1.062294758608386E-09</v>
+        <v>1.06226173974829E-09</v>
       </c>
       <c r="V4">
-        <v>-1.061850459772921E-09</v>
+        <v>-1.061838938533157E-09</v>
       </c>
       <c r="W4">
-        <v>-8.275468219703959E-13</v>
+        <v>-8.275497549034323E-13</v>
       </c>
       <c r="X4">
-        <v>-1.06229886145547E-09</v>
+        <v>-1.062275466077101E-09</v>
       </c>
       <c r="Y4">
-        <v>1.06185085184039E-09</v>
+        <v>1.06185124390098E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7457,40 +7457,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.331066002009955</v>
+        <v>0.3310660020099438</v>
       </c>
       <c r="AH4">
-        <v>0.8818141465041072</v>
+        <v>0.8818141465042876</v>
       </c>
       <c r="AI4">
-        <v>0.8815929672232857</v>
+        <v>0.8815929672231091</v>
       </c>
       <c r="AJ4">
-        <v>0.3310660019915774</v>
+        <v>0.3310660019915654</v>
       </c>
       <c r="AK4">
-        <v>0.881814146497056</v>
+        <v>0.8818141464972367</v>
       </c>
       <c r="AL4">
-        <v>0.881592967226888</v>
+        <v>0.8815929672267115</v>
       </c>
       <c r="AM4">
-        <v>0.03897126331041629</v>
+        <v>0.03897126327903396</v>
       </c>
       <c r="AN4">
-        <v>-100.8196771685227</v>
+        <v>-100.8196771685212</v>
       </c>
       <c r="AO4">
-        <v>100.8224244195523</v>
+        <v>100.8224244195552</v>
       </c>
       <c r="AP4">
-        <v>0.03897126143524871</v>
+        <v>0.03897126140385956</v>
       </c>
       <c r="AQ4">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680012</v>
       </c>
       <c r="AR4">
-        <v>100.8224244188998</v>
+        <v>100.8224244189028</v>
       </c>
     </row>
   </sheetData>
@@ -7681,40 +7681,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.436062641365466E-09</v>
+        <v>-2.436066563040196E-09</v>
       </c>
       <c r="O2">
-        <v>-6.079245531822523E-10</v>
+        <v>-6.079288976278449E-10</v>
       </c>
       <c r="P2">
-        <v>-6.100898731686337E-10</v>
+        <v>-6.100811869442953E-10</v>
       </c>
       <c r="Q2">
-        <v>2.436064210014149E-09</v>
+        <v>2.436069307871326E-09</v>
       </c>
       <c r="R2">
-        <v>6.079196663082444E-10</v>
+        <v>6.079291848824088E-10</v>
       </c>
       <c r="S2">
-        <v>6.100919241635188E-10</v>
+        <v>6.100788346807675E-10</v>
       </c>
       <c r="T2">
-        <v>-2.481065582971287E-12</v>
+        <v>-2.479500005087269E-12</v>
       </c>
       <c r="U2">
-        <v>-3.186857908134008E-09</v>
+        <v>-3.186852825128902E-09</v>
       </c>
       <c r="V2">
-        <v>3.185578342485843E-09</v>
+        <v>3.185588506363356E-09</v>
       </c>
       <c r="W2">
-        <v>2.481066889241052E-12</v>
+        <v>2.479502111370035E-12</v>
       </c>
       <c r="X2">
-        <v>3.186854589461792E-09</v>
+        <v>3.186843201707072E-09</v>
       </c>
       <c r="Y2">
-        <v>-3.185577950365134E-09</v>
+        <v>-3.185576200942292E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -7735,40 +7735,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.3310660019364458</v>
+        <v>0.3310660019364333</v>
       </c>
       <c r="AH2">
-        <v>0.8818141464759021</v>
+        <v>0.8818141464760828</v>
       </c>
       <c r="AI2">
-        <v>0.8815929672376953</v>
+        <v>0.881592967237519</v>
       </c>
       <c r="AJ2">
-        <v>0.3310660019915774</v>
+        <v>0.3310660019915654</v>
       </c>
       <c r="AK2">
-        <v>0.881814146497056</v>
+        <v>0.8818141464972367</v>
       </c>
       <c r="AL2">
-        <v>0.881592967226888</v>
+        <v>0.8815929672267115</v>
       </c>
       <c r="AM2">
-        <v>0.03897125580992354</v>
+        <v>0.03897125577851769</v>
       </c>
       <c r="AN2">
-        <v>-100.8196771664425</v>
+        <v>-100.8196771664411</v>
       </c>
       <c r="AO2">
-        <v>100.8224244169423</v>
+        <v>100.8224244169453</v>
       </c>
       <c r="AP2">
-        <v>0.03897126143524871</v>
+        <v>0.03897126140385956</v>
       </c>
       <c r="AQ2">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680012</v>
       </c>
       <c r="AR2">
-        <v>100.8224244188998</v>
+        <v>100.8224244189028</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -7812,40 +7812,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.120224485230411E-10</v>
+        <v>8.120342103474328E-10</v>
       </c>
       <c r="O3">
-        <v>2.026443137568246E-10</v>
+        <v>2.026422029837616E-10</v>
       </c>
       <c r="P3">
-        <v>2.033640752228862E-10</v>
+        <v>2.033593704931326E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.120271532077597E-10</v>
+        <v>-8.120283293901726E-10</v>
       </c>
       <c r="R3">
-        <v>-2.026409950134519E-10</v>
+        <v>-2.026426999409223E-10</v>
       </c>
       <c r="S3">
-        <v>-2.033620243180967E-10</v>
+        <v>-2.033617228467562E-10</v>
       </c>
       <c r="T3">
-        <v>8.275457819091896E-13</v>
+        <v>8.275537815864137E-13</v>
       </c>
       <c r="U3">
-        <v>1.06227834719343E-09</v>
+        <v>1.06226173974829E-09</v>
       </c>
       <c r="V3">
-        <v>-1.061863549255717E-09</v>
+        <v>-1.061838938533157E-09</v>
       </c>
       <c r="W3">
-        <v>-8.27548955336164E-13</v>
+        <v>-8.275497549034323E-13</v>
       </c>
       <c r="X3">
-        <v>-1.062283234162142E-09</v>
+        <v>-1.062275466077101E-09</v>
       </c>
       <c r="Y3">
-        <v>1.061863941323186E-09</v>
+        <v>1.06185124390098E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -7866,40 +7866,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.331066002009955</v>
+        <v>0.3310660020099438</v>
       </c>
       <c r="AH3">
-        <v>0.8818141465041071</v>
+        <v>0.8818141465042876</v>
       </c>
       <c r="AI3">
-        <v>0.8815929672232857</v>
+        <v>0.8815929672231091</v>
       </c>
       <c r="AJ3">
-        <v>0.3310660019915774</v>
+        <v>0.3310660019915654</v>
       </c>
       <c r="AK3">
-        <v>0.881814146497056</v>
+        <v>0.8818141464972367</v>
       </c>
       <c r="AL3">
-        <v>0.881592967226888</v>
+        <v>0.8815929672267115</v>
       </c>
       <c r="AM3">
-        <v>0.0389712633104158</v>
+        <v>0.03897126327903396</v>
       </c>
       <c r="AN3">
-        <v>-100.8196771685227</v>
+        <v>-100.8196771685212</v>
       </c>
       <c r="AO3">
-        <v>100.8224244195523</v>
+        <v>100.8224244195552</v>
       </c>
       <c r="AP3">
-        <v>0.03897126143524871</v>
+        <v>0.03897126140385956</v>
       </c>
       <c r="AQ3">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680012</v>
       </c>
       <c r="AR3">
-        <v>100.8224244188998</v>
+        <v>100.8224244189028</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -7943,40 +7943,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.120193120365294E-10</v>
+        <v>8.120342103474328E-10</v>
       </c>
       <c r="O4">
-        <v>2.026474502433363E-10</v>
+        <v>2.026422029837616E-10</v>
       </c>
       <c r="P4">
-        <v>2.033658246450585E-10</v>
+        <v>2.033593704931326E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.120240167212483E-10</v>
+        <v>-8.120283293901726E-10</v>
       </c>
       <c r="R4">
-        <v>-2.026482343537024E-10</v>
+        <v>-2.026426999409223E-10</v>
       </c>
       <c r="S4">
-        <v>-2.033637737402692E-10</v>
+        <v>-2.033617228467562E-10</v>
       </c>
       <c r="T4">
-        <v>8.275436485433257E-13</v>
+        <v>8.275537815864137E-13</v>
       </c>
       <c r="U4">
-        <v>1.062294758608386E-09</v>
+        <v>1.06226173974829E-09</v>
       </c>
       <c r="V4">
-        <v>-1.061850459772921E-09</v>
+        <v>-1.061838938533157E-09</v>
       </c>
       <c r="W4">
-        <v>-8.275468219703959E-13</v>
+        <v>-8.275497549034323E-13</v>
       </c>
       <c r="X4">
-        <v>-1.06229886145547E-09</v>
+        <v>-1.062275466077101E-09</v>
       </c>
       <c r="Y4">
-        <v>1.06185085184039E-09</v>
+        <v>1.06185124390098E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -7997,40 +7997,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.331066002009955</v>
+        <v>0.3310660020099438</v>
       </c>
       <c r="AH4">
-        <v>0.8818141465041072</v>
+        <v>0.8818141465042876</v>
       </c>
       <c r="AI4">
-        <v>0.8815929672232857</v>
+        <v>0.8815929672231091</v>
       </c>
       <c r="AJ4">
-        <v>0.3310660019915774</v>
+        <v>0.3310660019915654</v>
       </c>
       <c r="AK4">
-        <v>0.881814146497056</v>
+        <v>0.8818141464972367</v>
       </c>
       <c r="AL4">
-        <v>0.881592967226888</v>
+        <v>0.8815929672267115</v>
       </c>
       <c r="AM4">
-        <v>0.03897126331041629</v>
+        <v>0.03897126327903396</v>
       </c>
       <c r="AN4">
-        <v>-100.8196771685227</v>
+        <v>-100.8196771685212</v>
       </c>
       <c r="AO4">
-        <v>100.8224244195523</v>
+        <v>100.8224244195552</v>
       </c>
       <c r="AP4">
-        <v>0.03897126143524871</v>
+        <v>0.03897126140385956</v>
       </c>
       <c r="AQ4">
-        <v>-100.8196771680026</v>
+        <v>-100.8196771680012</v>
       </c>
       <c r="AR4">
-        <v>100.8224244188998</v>
+        <v>100.8224244189028</v>
       </c>
     </row>
   </sheetData>
@@ -8221,40 +8221,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624673671781451E-09</v>
+        <v>-2.624689345304552E-09</v>
       </c>
       <c r="O2">
-        <v>-1.14198504053123E-09</v>
+        <v>-1.141981955906747E-09</v>
       </c>
       <c r="P2">
-        <v>-1.703427595871373E-10</v>
+        <v>-1.703409331181057E-10</v>
       </c>
       <c r="Q2">
-        <v>2.62467562045374E-09</v>
+        <v>2.624689733294067E-09</v>
       </c>
       <c r="R2">
-        <v>1.141982984598483E-09</v>
+        <v>1.141982795532658E-09</v>
       </c>
       <c r="S2">
-        <v>1.70342130282533E-10</v>
+        <v>1.703357871781851E-10</v>
       </c>
       <c r="T2">
-        <v>1.121953767199705E-09</v>
+        <v>1.121957101572675E-09</v>
       </c>
       <c r="U2">
-        <v>-1.951308007410817E-09</v>
+        <v>-1.951313284208569E-09</v>
       </c>
       <c r="V2">
-        <v>2.512261368813236E-09</v>
+        <v>2.512271315318124E-09</v>
       </c>
       <c r="W2">
-        <v>-1.12195381476152E-09</v>
+        <v>-1.121958480950694E-09</v>
       </c>
       <c r="X2">
-        <v>1.95130333884967E-09</v>
+        <v>1.951307671612389E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.512259196834499E-09</v>
+        <v>-2.512265743478505E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8275,40 +8275,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5411436570099365</v>
+        <v>0.5411436570099402</v>
       </c>
       <c r="AH2">
-        <v>0.8572501491769242</v>
+        <v>0.857250149177054</v>
       </c>
       <c r="AI2">
-        <v>0.9547462544936437</v>
+        <v>0.9547462544935249</v>
       </c>
       <c r="AJ2">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370847</v>
       </c>
       <c r="AK2">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491971014</v>
       </c>
       <c r="AL2">
-        <v>0.9547462544833361</v>
+        <v>0.9547462544832171</v>
       </c>
       <c r="AM2">
-        <v>-10.86424712076569</v>
+        <v>-10.86424712077958</v>
       </c>
       <c r="AN2">
-        <v>-108.0574514187701</v>
+        <v>-108.0574514187688</v>
       </c>
       <c r="AO2">
-        <v>106.1597915285524</v>
+        <v>106.1597915285558</v>
       </c>
       <c r="AP2">
-        <v>-10.86424711684952</v>
+        <v>-10.8642471168634</v>
       </c>
       <c r="AQ2">
-        <v>-108.0574514195154</v>
+        <v>-108.057451419514</v>
       </c>
       <c r="AR2">
-        <v>106.1597915297823</v>
+        <v>106.1597915297856</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8352,40 +8352,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.748925802035608E-10</v>
+        <v>8.749025640987361E-10</v>
       </c>
       <c r="O3">
-        <v>3.806587432023416E-10</v>
+        <v>3.806615342998343E-10</v>
       </c>
       <c r="P3">
-        <v>5.678139703645407E-11</v>
+        <v>5.677870687033798E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.748908732919818E-10</v>
+        <v>-8.748973830164174E-10</v>
       </c>
       <c r="R3">
-        <v>-3.806585752817894E-10</v>
+        <v>-3.806619534336008E-10</v>
       </c>
       <c r="S3">
-        <v>-5.678311236133549E-11</v>
+        <v>-5.678511156993573E-11</v>
       </c>
       <c r="T3">
-        <v>-3.739865893970452E-10</v>
+        <v>-3.739855691085456E-10</v>
       </c>
       <c r="U3">
-        <v>6.50426994079234E-10</v>
+        <v>6.504175418586872E-10</v>
       </c>
       <c r="V3">
-        <v>-8.374234570807912E-10</v>
+        <v>-8.37410110714591E-10</v>
       </c>
       <c r="W3">
-        <v>3.739852830124136E-10</v>
+        <v>3.739819646056351E-10</v>
       </c>
       <c r="X3">
-        <v>-6.504281166012063E-10</v>
+        <v>-6.504270152271072E-10</v>
       </c>
       <c r="Y3">
-        <v>8.374253143538245E-10</v>
+        <v>8.374200264227666E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8406,40 +8406,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5411436570461288</v>
+        <v>0.5411436570461335</v>
       </c>
       <c r="AH3">
-        <v>0.8572501492036539</v>
+        <v>0.8572501492037835</v>
       </c>
       <c r="AI3">
-        <v>0.9547462544799002</v>
+        <v>0.9547462544797811</v>
       </c>
       <c r="AJ3">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370847</v>
       </c>
       <c r="AK3">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491971014</v>
       </c>
       <c r="AL3">
-        <v>0.9547462544833361</v>
+        <v>0.9547462544832171</v>
       </c>
       <c r="AM3">
-        <v>-10.86424711554411</v>
+        <v>-10.86424711555797</v>
       </c>
       <c r="AN3">
-        <v>-108.0574514197637</v>
+        <v>-108.0574514197623</v>
       </c>
       <c r="AO3">
-        <v>106.1597915301922</v>
+        <v>106.1597915301955</v>
       </c>
       <c r="AP3">
-        <v>-10.86424711684952</v>
+        <v>-10.8642471168634</v>
       </c>
       <c r="AQ3">
-        <v>-108.0574514195154</v>
+        <v>-108.057451419514</v>
       </c>
       <c r="AR3">
-        <v>106.1597915297823</v>
+        <v>106.1597915297856</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -8483,40 +8483,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.748870621990083E-10</v>
+        <v>8.749025640987361E-10</v>
       </c>
       <c r="O4">
-        <v>3.806651213739787E-10</v>
+        <v>3.806615342998343E-10</v>
       </c>
       <c r="P4">
-        <v>5.677762089631733E-11</v>
+        <v>5.677870687033798E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.748858384384665E-10</v>
+        <v>-8.748973830164174E-10</v>
       </c>
       <c r="R4">
-        <v>-3.80667177353025E-10</v>
+        <v>-3.806619534336008E-10</v>
       </c>
       <c r="S4">
-        <v>-5.677933622119888E-11</v>
+        <v>-5.678511156993573E-11</v>
       </c>
       <c r="T4">
-        <v>-3.739881405217293E-10</v>
+        <v>-3.739855691085456E-10</v>
       </c>
       <c r="U4">
-        <v>6.504334568556135E-10</v>
+        <v>6.504175418586872E-10</v>
       </c>
       <c r="V4">
-        <v>-8.374104253930436E-10</v>
+        <v>-8.37410110714591E-10</v>
       </c>
       <c r="W4">
-        <v>3.739843167103398E-10</v>
+        <v>3.739819646056351E-10</v>
       </c>
       <c r="X4">
-        <v>-6.504381254441202E-10</v>
+        <v>-6.504270152271072E-10</v>
       </c>
       <c r="Y4">
-        <v>8.374122826660767E-10</v>
+        <v>8.374200264227666E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -8537,40 +8537,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5411436570461287</v>
+        <v>0.5411436570461335</v>
       </c>
       <c r="AH4">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492037835</v>
       </c>
       <c r="AI4">
-        <v>0.9547462544799004</v>
+        <v>0.9547462544797811</v>
       </c>
       <c r="AJ4">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370847</v>
       </c>
       <c r="AK4">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491971014</v>
       </c>
       <c r="AL4">
-        <v>0.9547462544833361</v>
+        <v>0.9547462544832171</v>
       </c>
       <c r="AM4">
-        <v>-10.86424711554411</v>
+        <v>-10.86424711555797</v>
       </c>
       <c r="AN4">
-        <v>-108.0574514197637</v>
+        <v>-108.0574514197623</v>
       </c>
       <c r="AO4">
-        <v>106.1597915301922</v>
+        <v>106.1597915301955</v>
       </c>
       <c r="AP4">
-        <v>-10.86424711684952</v>
+        <v>-10.8642471168634</v>
       </c>
       <c r="AQ4">
-        <v>-108.0574514195154</v>
+        <v>-108.057451419514</v>
       </c>
       <c r="AR4">
-        <v>106.1597915297823</v>
+        <v>106.1597915297856</v>
       </c>
     </row>
   </sheetData>
@@ -8761,40 +8761,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.624673671781451E-09</v>
+        <v>-2.624689345304552E-09</v>
       </c>
       <c r="O2">
-        <v>-1.14198504053123E-09</v>
+        <v>-1.141981955906747E-09</v>
       </c>
       <c r="P2">
-        <v>-1.703427595871373E-10</v>
+        <v>-1.703409331181057E-10</v>
       </c>
       <c r="Q2">
-        <v>2.62467562045374E-09</v>
+        <v>2.624689733294067E-09</v>
       </c>
       <c r="R2">
-        <v>1.141982984598483E-09</v>
+        <v>1.141982795532658E-09</v>
       </c>
       <c r="S2">
-        <v>1.70342130282533E-10</v>
+        <v>1.703357871781851E-10</v>
       </c>
       <c r="T2">
-        <v>1.121953767199705E-09</v>
+        <v>1.121957101572675E-09</v>
       </c>
       <c r="U2">
-        <v>-1.951308007410817E-09</v>
+        <v>-1.951313284208569E-09</v>
       </c>
       <c r="V2">
-        <v>2.512261368813236E-09</v>
+        <v>2.512271315318124E-09</v>
       </c>
       <c r="W2">
-        <v>-1.12195381476152E-09</v>
+        <v>-1.121958480950694E-09</v>
       </c>
       <c r="X2">
-        <v>1.95130333884967E-09</v>
+        <v>1.951307671612389E-09</v>
       </c>
       <c r="Y2">
-        <v>-2.512259196834499E-09</v>
+        <v>-2.512265743478505E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -8815,40 +8815,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.5411436570099365</v>
+        <v>0.5411436570099402</v>
       </c>
       <c r="AH2">
-        <v>0.8572501491769242</v>
+        <v>0.857250149177054</v>
       </c>
       <c r="AI2">
-        <v>0.9547462544936437</v>
+        <v>0.9547462544935249</v>
       </c>
       <c r="AJ2">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370847</v>
       </c>
       <c r="AK2">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491971014</v>
       </c>
       <c r="AL2">
-        <v>0.9547462544833361</v>
+        <v>0.9547462544832171</v>
       </c>
       <c r="AM2">
-        <v>-10.86424712076569</v>
+        <v>-10.86424712077958</v>
       </c>
       <c r="AN2">
-        <v>-108.0574514187701</v>
+        <v>-108.0574514187688</v>
       </c>
       <c r="AO2">
-        <v>106.1597915285524</v>
+        <v>106.1597915285558</v>
       </c>
       <c r="AP2">
-        <v>-10.86424711684952</v>
+        <v>-10.8642471168634</v>
       </c>
       <c r="AQ2">
-        <v>-108.0574514195154</v>
+        <v>-108.057451419514</v>
       </c>
       <c r="AR2">
-        <v>106.1597915297823</v>
+        <v>106.1597915297856</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -8892,40 +8892,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.748925802035608E-10</v>
+        <v>8.749025640987361E-10</v>
       </c>
       <c r="O3">
-        <v>3.806587432023416E-10</v>
+        <v>3.806615342998343E-10</v>
       </c>
       <c r="P3">
-        <v>5.678139703645407E-11</v>
+        <v>5.677870687033798E-11</v>
       </c>
       <c r="Q3">
-        <v>-8.748908732919818E-10</v>
+        <v>-8.748973830164174E-10</v>
       </c>
       <c r="R3">
-        <v>-3.806585752817894E-10</v>
+        <v>-3.806619534336008E-10</v>
       </c>
       <c r="S3">
-        <v>-5.678311236133549E-11</v>
+        <v>-5.678511156993573E-11</v>
       </c>
       <c r="T3">
-        <v>-3.739865893970452E-10</v>
+        <v>-3.739855691085456E-10</v>
       </c>
       <c r="U3">
-        <v>6.50426994079234E-10</v>
+        <v>6.504175418586872E-10</v>
       </c>
       <c r="V3">
-        <v>-8.374234570807912E-10</v>
+        <v>-8.37410110714591E-10</v>
       </c>
       <c r="W3">
-        <v>3.739852830124136E-10</v>
+        <v>3.739819646056351E-10</v>
       </c>
       <c r="X3">
-        <v>-6.504281166012063E-10</v>
+        <v>-6.504270152271072E-10</v>
       </c>
       <c r="Y3">
-        <v>8.374253143538245E-10</v>
+        <v>8.374200264227666E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -8946,40 +8946,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5411436570461288</v>
+        <v>0.5411436570461335</v>
       </c>
       <c r="AH3">
-        <v>0.8572501492036539</v>
+        <v>0.8572501492037835</v>
       </c>
       <c r="AI3">
-        <v>0.9547462544799002</v>
+        <v>0.9547462544797811</v>
       </c>
       <c r="AJ3">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370847</v>
       </c>
       <c r="AK3">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491971014</v>
       </c>
       <c r="AL3">
-        <v>0.9547462544833361</v>
+        <v>0.9547462544832171</v>
       </c>
       <c r="AM3">
-        <v>-10.86424711554411</v>
+        <v>-10.86424711555797</v>
       </c>
       <c r="AN3">
-        <v>-108.0574514197637</v>
+        <v>-108.0574514197623</v>
       </c>
       <c r="AO3">
-        <v>106.1597915301922</v>
+        <v>106.1597915301955</v>
       </c>
       <c r="AP3">
-        <v>-10.86424711684952</v>
+        <v>-10.8642471168634</v>
       </c>
       <c r="AQ3">
-        <v>-108.0574514195154</v>
+        <v>-108.057451419514</v>
       </c>
       <c r="AR3">
-        <v>106.1597915297823</v>
+        <v>106.1597915297856</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9023,40 +9023,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.748870621990083E-10</v>
+        <v>8.749025640987361E-10</v>
       </c>
       <c r="O4">
-        <v>3.806651213739787E-10</v>
+        <v>3.806615342998343E-10</v>
       </c>
       <c r="P4">
-        <v>5.677762089631733E-11</v>
+        <v>5.677870687033798E-11</v>
       </c>
       <c r="Q4">
-        <v>-8.748858384384665E-10</v>
+        <v>-8.748973830164174E-10</v>
       </c>
       <c r="R4">
-        <v>-3.80667177353025E-10</v>
+        <v>-3.806619534336008E-10</v>
       </c>
       <c r="S4">
-        <v>-5.677933622119888E-11</v>
+        <v>-5.678511156993573E-11</v>
       </c>
       <c r="T4">
-        <v>-3.739881405217293E-10</v>
+        <v>-3.739855691085456E-10</v>
       </c>
       <c r="U4">
-        <v>6.504334568556135E-10</v>
+        <v>6.504175418586872E-10</v>
       </c>
       <c r="V4">
-        <v>-8.374104253930436E-10</v>
+        <v>-8.37410110714591E-10</v>
       </c>
       <c r="W4">
-        <v>3.739843167103398E-10</v>
+        <v>3.739819646056351E-10</v>
       </c>
       <c r="X4">
-        <v>-6.504381254441202E-10</v>
+        <v>-6.504270152271072E-10</v>
       </c>
       <c r="Y4">
-        <v>8.374122826660767E-10</v>
+        <v>8.374200264227666E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9077,40 +9077,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.5411436570461287</v>
+        <v>0.5411436570461335</v>
       </c>
       <c r="AH4">
-        <v>0.8572501492036542</v>
+        <v>0.8572501492037835</v>
       </c>
       <c r="AI4">
-        <v>0.9547462544799004</v>
+        <v>0.9547462544797811</v>
       </c>
       <c r="AJ4">
-        <v>0.5411436570370807</v>
+        <v>0.5411436570370847</v>
       </c>
       <c r="AK4">
-        <v>0.8572501491969717</v>
+        <v>0.8572501491971014</v>
       </c>
       <c r="AL4">
-        <v>0.9547462544833361</v>
+        <v>0.9547462544832171</v>
       </c>
       <c r="AM4">
-        <v>-10.86424711554411</v>
+        <v>-10.86424711555797</v>
       </c>
       <c r="AN4">
-        <v>-108.0574514197637</v>
+        <v>-108.0574514197623</v>
       </c>
       <c r="AO4">
-        <v>106.1597915301922</v>
+        <v>106.1597915301955</v>
       </c>
       <c r="AP4">
-        <v>-10.86424711684952</v>
+        <v>-10.8642471168634</v>
       </c>
       <c r="AQ4">
-        <v>-108.0574514195154</v>
+        <v>-108.057451419514</v>
       </c>
       <c r="AR4">
-        <v>106.1597915297823</v>
+        <v>106.1597915297856</v>
       </c>
     </row>
   </sheetData>
@@ -9301,40 +9301,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.966639475340142E-09</v>
+        <v>-2.966601369389101E-09</v>
       </c>
       <c r="O2">
-        <v>-7.428100953978882E-10</v>
+        <v>-7.428135550788873E-10</v>
       </c>
       <c r="P2">
-        <v>-7.404957899589492E-10</v>
+        <v>-7.405096411831889E-10</v>
       </c>
       <c r="Q2">
-        <v>2.966618695448574E-09</v>
+        <v>2.966597906127344E-09</v>
       </c>
       <c r="R2">
-        <v>7.42817020932976E-10</v>
+        <v>7.428256750825685E-10</v>
       </c>
       <c r="S2">
-        <v>7.404992516479318E-10</v>
+        <v>7.405096395462099E-10</v>
       </c>
       <c r="T2">
-        <v>-2.626569805740183E-12</v>
+        <v>-2.657728292628091E-12</v>
       </c>
       <c r="U2">
-        <v>3.8300719243171E-09</v>
+        <v>3.83005980163395E-09</v>
       </c>
       <c r="V2">
-        <v>-3.831381746131183E-09</v>
+        <v>-3.831388676943453E-09</v>
       </c>
       <c r="W2">
-        <v>2.626563634440095E-12</v>
+        <v>2.65772732478859E-12</v>
       </c>
       <c r="X2">
-        <v>-3.830066726742767E-09</v>
+        <v>-3.830052870835609E-09</v>
       </c>
       <c r="Y2">
-        <v>3.831388674328028E-09</v>
+        <v>3.831395604099613E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9355,40 +9355,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7311297291053342</v>
+        <v>0.7311297291055274</v>
       </c>
       <c r="AH2">
-        <v>0.3655648643427193</v>
+        <v>0.3655648643425274</v>
       </c>
       <c r="AI2">
-        <v>0.3655648647626212</v>
+        <v>0.3655648647624291</v>
       </c>
       <c r="AJ2">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291213676</v>
       </c>
       <c r="AK2">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643040914</v>
       </c>
       <c r="AL2">
-        <v>0.3655648648168983</v>
+        <v>0.3655648648167069</v>
       </c>
       <c r="AM2">
-        <v>0.01721676665950743</v>
+        <v>0.0172167666756329</v>
       </c>
       <c r="AN2">
-        <v>-179.982783233704</v>
+        <v>-179.9827832337361</v>
       </c>
       <c r="AO2">
-        <v>-179.9827832329748</v>
+        <v>-179.982783233007</v>
       </c>
       <c r="AP2">
-        <v>0.01721676806546866</v>
+        <v>0.01721676808157303</v>
       </c>
       <c r="AQ2">
-        <v>-179.9827832258906</v>
+        <v>-179.9827832259228</v>
       </c>
       <c r="AR2">
-        <v>-179.9827832379763</v>
+        <v>-179.9827832380085</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9432,40 +9432,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.888521185342125E-10</v>
+        <v>9.888417295972755E-10</v>
       </c>
       <c r="O3">
-        <v>2.476010550584898E-10</v>
+        <v>2.476114424337922E-10</v>
       </c>
       <c r="P3">
-        <v>2.46831928102444E-10</v>
+        <v>2.468457793255131E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.888590451790054E-10</v>
+        <v>-9.888555808126102E-10</v>
       </c>
       <c r="R3">
-        <v>-2.476010544887874E-10</v>
+        <v>-2.475993207435754E-10</v>
       </c>
       <c r="S3">
-        <v>-2.468423180309627E-10</v>
+        <v>-2.468457813575168E-10</v>
       </c>
       <c r="T3">
-        <v>8.755149754202673E-13</v>
+        <v>8.720485276583548E-13</v>
       </c>
       <c r="U3">
-        <v>-1.276686024140881E-09</v>
+        <v>-1.276677362703374E-09</v>
       </c>
       <c r="V3">
-        <v>1.277134175586426E-09</v>
+        <v>1.277141106400319E-09</v>
       </c>
       <c r="W3">
-        <v>-8.755170487104773E-13</v>
+        <v>-8.789793342594058E-13</v>
       </c>
       <c r="X3">
-        <v>1.276684292533899E-09</v>
+        <v>1.276677366401795E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.277134178652475E-09</v>
+        <v>-1.27713417969236E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -9486,40 +9486,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7311297291264544</v>
+        <v>0.7311297291266469</v>
       </c>
       <c r="AH3">
-        <v>0.3655648642914708</v>
+        <v>0.3655648642912802</v>
       </c>
       <c r="AI3">
-        <v>0.3655648648349912</v>
+        <v>0.3655648648348002</v>
       </c>
       <c r="AJ3">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291213676</v>
       </c>
       <c r="AK3">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643040914</v>
       </c>
       <c r="AL3">
-        <v>0.3655648648168983</v>
+        <v>0.3655648648167069</v>
       </c>
       <c r="AM3">
-        <v>0.01721676853411538</v>
+        <v>0.01721676855023941</v>
       </c>
       <c r="AN3">
-        <v>-179.9827832232861</v>
+        <v>-179.9827832233183</v>
       </c>
       <c r="AO3">
-        <v>-179.9827832396435</v>
+        <v>-179.9827832396757</v>
       </c>
       <c r="AP3">
-        <v>0.01721676806546866</v>
+        <v>0.01721676808157303</v>
       </c>
       <c r="AQ3">
-        <v>-179.9827832258906</v>
+        <v>-179.9827832259228</v>
       </c>
       <c r="AR3">
-        <v>-179.9827832379763</v>
+        <v>-179.9827832380085</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -9563,40 +9563,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.888521206155972E-10</v>
+        <v>9.888417295972755E-10</v>
       </c>
       <c r="O4">
-        <v>2.476010550584897E-10</v>
+        <v>2.476114424337922E-10</v>
       </c>
       <c r="P4">
-        <v>2.468457793249232E-10</v>
+        <v>2.468457793255131E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.888590472603902E-10</v>
+        <v>-9.888555808126102E-10</v>
       </c>
       <c r="R4">
-        <v>-2.475941278368659E-10</v>
+        <v>-2.475993207435754E-10</v>
       </c>
       <c r="S4">
-        <v>-2.468492446828939E-10</v>
+        <v>-2.468457813575168E-10</v>
       </c>
       <c r="T4">
-        <v>8.685883234939888E-13</v>
+        <v>8.720485276583548E-13</v>
       </c>
       <c r="U4">
-        <v>-1.276686024140881E-09</v>
+        <v>-1.276677362703374E-09</v>
       </c>
       <c r="V4">
-        <v>1.277141106401126E-09</v>
+        <v>1.277141106400319E-09</v>
       </c>
       <c r="W4">
-        <v>-8.685903967841902E-13</v>
+        <v>-8.789793342594058E-13</v>
       </c>
       <c r="X4">
-        <v>1.276684294615284E-09</v>
+        <v>1.276677366401795E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.277134180733859E-09</v>
+        <v>-1.27713417969236E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -9617,40 +9617,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7311297291264544</v>
+        <v>0.7311297291266469</v>
       </c>
       <c r="AH4">
-        <v>0.3655648642914707</v>
+        <v>0.3655648642912802</v>
       </c>
       <c r="AI4">
-        <v>0.3655648648349913</v>
+        <v>0.3655648648348002</v>
       </c>
       <c r="AJ4">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291213676</v>
       </c>
       <c r="AK4">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643040914</v>
       </c>
       <c r="AL4">
-        <v>0.3655648648168983</v>
+        <v>0.3655648648167069</v>
       </c>
       <c r="AM4">
-        <v>0.01721676853411878</v>
+        <v>0.01721676855023941</v>
       </c>
       <c r="AN4">
-        <v>-179.9827832232861</v>
+        <v>-179.9827832233183</v>
       </c>
       <c r="AO4">
-        <v>-179.9827832396435</v>
+        <v>-179.9827832396757</v>
       </c>
       <c r="AP4">
-        <v>0.01721676806546866</v>
+        <v>0.01721676808157303</v>
       </c>
       <c r="AQ4">
-        <v>-179.9827832258906</v>
+        <v>-179.9827832259228</v>
       </c>
       <c r="AR4">
-        <v>-179.9827832379763</v>
+        <v>-179.9827832380085</v>
       </c>
     </row>
   </sheetData>
@@ -9841,40 +9841,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.966639475340142E-09</v>
+        <v>-2.966601369389101E-09</v>
       </c>
       <c r="O2">
-        <v>-7.428100953978882E-10</v>
+        <v>-7.428135550788873E-10</v>
       </c>
       <c r="P2">
-        <v>-7.404957899589492E-10</v>
+        <v>-7.405096411831889E-10</v>
       </c>
       <c r="Q2">
-        <v>2.966618695448574E-09</v>
+        <v>2.966597906127344E-09</v>
       </c>
       <c r="R2">
-        <v>7.42817020932976E-10</v>
+        <v>7.428256750825685E-10</v>
       </c>
       <c r="S2">
-        <v>7.404992516479318E-10</v>
+        <v>7.405096395462099E-10</v>
       </c>
       <c r="T2">
-        <v>-2.626569805740183E-12</v>
+        <v>-2.657728292628091E-12</v>
       </c>
       <c r="U2">
-        <v>3.8300719243171E-09</v>
+        <v>3.83005980163395E-09</v>
       </c>
       <c r="V2">
-        <v>-3.831381746131183E-09</v>
+        <v>-3.831388676943453E-09</v>
       </c>
       <c r="W2">
-        <v>2.626563634440095E-12</v>
+        <v>2.65772732478859E-12</v>
       </c>
       <c r="X2">
-        <v>-3.830066726742767E-09</v>
+        <v>-3.830052870835609E-09</v>
       </c>
       <c r="Y2">
-        <v>3.831388674328028E-09</v>
+        <v>3.831395604099613E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -9895,40 +9895,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7311297291053342</v>
+        <v>0.7311297291055274</v>
       </c>
       <c r="AH2">
-        <v>0.3655648643427193</v>
+        <v>0.3655648643425274</v>
       </c>
       <c r="AI2">
-        <v>0.3655648647626212</v>
+        <v>0.3655648647624291</v>
       </c>
       <c r="AJ2">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291213676</v>
       </c>
       <c r="AK2">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643040914</v>
       </c>
       <c r="AL2">
-        <v>0.3655648648168983</v>
+        <v>0.3655648648167069</v>
       </c>
       <c r="AM2">
-        <v>0.01721676665950743</v>
+        <v>0.0172167666756329</v>
       </c>
       <c r="AN2">
-        <v>-179.982783233704</v>
+        <v>-179.9827832337361</v>
       </c>
       <c r="AO2">
-        <v>-179.9827832329748</v>
+        <v>-179.982783233007</v>
       </c>
       <c r="AP2">
-        <v>0.01721676806546866</v>
+        <v>0.01721676808157303</v>
       </c>
       <c r="AQ2">
-        <v>-179.9827832258906</v>
+        <v>-179.9827832259228</v>
       </c>
       <c r="AR2">
-        <v>-179.9827832379763</v>
+        <v>-179.9827832380085</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -9972,40 +9972,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>9.888521185342125E-10</v>
+        <v>9.888417295972755E-10</v>
       </c>
       <c r="O3">
-        <v>2.476010550584898E-10</v>
+        <v>2.476114424337922E-10</v>
       </c>
       <c r="P3">
-        <v>2.46831928102444E-10</v>
+        <v>2.468457793255131E-10</v>
       </c>
       <c r="Q3">
-        <v>-9.888590451790054E-10</v>
+        <v>-9.888555808126102E-10</v>
       </c>
       <c r="R3">
-        <v>-2.476010544887874E-10</v>
+        <v>-2.475993207435754E-10</v>
       </c>
       <c r="S3">
-        <v>-2.468423180309627E-10</v>
+        <v>-2.468457813575168E-10</v>
       </c>
       <c r="T3">
-        <v>8.755149754202673E-13</v>
+        <v>8.720485276583548E-13</v>
       </c>
       <c r="U3">
-        <v>-1.276686024140881E-09</v>
+        <v>-1.276677362703374E-09</v>
       </c>
       <c r="V3">
-        <v>1.277134175586426E-09</v>
+        <v>1.277141106400319E-09</v>
       </c>
       <c r="W3">
-        <v>-8.755170487104773E-13</v>
+        <v>-8.789793342594058E-13</v>
       </c>
       <c r="X3">
-        <v>1.276684292533899E-09</v>
+        <v>1.276677366401795E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.277134178652475E-09</v>
+        <v>-1.27713417969236E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10026,40 +10026,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7311297291264544</v>
+        <v>0.7311297291266469</v>
       </c>
       <c r="AH3">
-        <v>0.3655648642914708</v>
+        <v>0.3655648642912802</v>
       </c>
       <c r="AI3">
-        <v>0.3655648648349912</v>
+        <v>0.3655648648348002</v>
       </c>
       <c r="AJ3">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291213676</v>
       </c>
       <c r="AK3">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643040914</v>
       </c>
       <c r="AL3">
-        <v>0.3655648648168983</v>
+        <v>0.3655648648167069</v>
       </c>
       <c r="AM3">
-        <v>0.01721676853411538</v>
+        <v>0.01721676855023941</v>
       </c>
       <c r="AN3">
-        <v>-179.9827832232861</v>
+        <v>-179.9827832233183</v>
       </c>
       <c r="AO3">
-        <v>-179.9827832396435</v>
+        <v>-179.9827832396757</v>
       </c>
       <c r="AP3">
-        <v>0.01721676806546866</v>
+        <v>0.01721676808157303</v>
       </c>
       <c r="AQ3">
-        <v>-179.9827832258906</v>
+        <v>-179.9827832259228</v>
       </c>
       <c r="AR3">
-        <v>-179.9827832379763</v>
+        <v>-179.9827832380085</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10103,40 +10103,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.888521206155972E-10</v>
+        <v>9.888417295972755E-10</v>
       </c>
       <c r="O4">
-        <v>2.476010550584897E-10</v>
+        <v>2.476114424337922E-10</v>
       </c>
       <c r="P4">
-        <v>2.468457793249232E-10</v>
+        <v>2.468457793255131E-10</v>
       </c>
       <c r="Q4">
-        <v>-9.888590472603902E-10</v>
+        <v>-9.888555808126102E-10</v>
       </c>
       <c r="R4">
-        <v>-2.475941278368659E-10</v>
+        <v>-2.475993207435754E-10</v>
       </c>
       <c r="S4">
-        <v>-2.468492446828939E-10</v>
+        <v>-2.468457813575168E-10</v>
       </c>
       <c r="T4">
-        <v>8.685883234939888E-13</v>
+        <v>8.720485276583548E-13</v>
       </c>
       <c r="U4">
-        <v>-1.276686024140881E-09</v>
+        <v>-1.276677362703374E-09</v>
       </c>
       <c r="V4">
-        <v>1.277141106401126E-09</v>
+        <v>1.277141106400319E-09</v>
       </c>
       <c r="W4">
-        <v>-8.685903967841902E-13</v>
+        <v>-8.789793342594058E-13</v>
       </c>
       <c r="X4">
-        <v>1.276684294615284E-09</v>
+        <v>1.276677366401795E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.277134180733859E-09</v>
+        <v>-1.27713417969236E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10157,40 +10157,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7311297291264544</v>
+        <v>0.7311297291266469</v>
       </c>
       <c r="AH4">
-        <v>0.3655648642914707</v>
+        <v>0.3655648642912802</v>
       </c>
       <c r="AI4">
-        <v>0.3655648648349913</v>
+        <v>0.3655648648348002</v>
       </c>
       <c r="AJ4">
-        <v>0.7311297291211749</v>
+        <v>0.7311297291213676</v>
       </c>
       <c r="AK4">
-        <v>0.3655648643042824</v>
+        <v>0.3655648643040914</v>
       </c>
       <c r="AL4">
-        <v>0.3655648648168983</v>
+        <v>0.3655648648167069</v>
       </c>
       <c r="AM4">
-        <v>0.01721676853411878</v>
+        <v>0.01721676855023941</v>
       </c>
       <c r="AN4">
-        <v>-179.9827832232861</v>
+        <v>-179.9827832233183</v>
       </c>
       <c r="AO4">
-        <v>-179.9827832396435</v>
+        <v>-179.9827832396757</v>
       </c>
       <c r="AP4">
-        <v>0.01721676806546866</v>
+        <v>0.01721676808157303</v>
       </c>
       <c r="AQ4">
-        <v>-179.9827832258906</v>
+        <v>-179.9827832259228</v>
       </c>
       <c r="AR4">
-        <v>-179.9827832379763</v>
+        <v>-179.9827832380085</v>
       </c>
     </row>
   </sheetData>
@@ -10381,40 +10381,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.27823960536492E-09</v>
+        <v>-2.278242184930849E-09</v>
       </c>
       <c r="O2">
-        <v>-1.906621315351239E-09</v>
+        <v>-1.906633654427793E-09</v>
       </c>
       <c r="P2">
-        <v>-3.133050606616588E-09</v>
+        <v>-3.133064917956466E-09</v>
       </c>
       <c r="Q2">
-        <v>2.278243367346318E-09</v>
+        <v>2.278233822751269E-09</v>
       </c>
       <c r="R2">
-        <v>1.906618621441982E-09</v>
+        <v>1.90664880757923E-09</v>
       </c>
       <c r="S2">
-        <v>3.133053859819989E-09</v>
+        <v>3.133068816276676E-09</v>
       </c>
       <c r="T2">
-        <v>7.137939505496804E-10</v>
+        <v>7.13786007493328E-10</v>
       </c>
       <c r="U2">
-        <v>4.345330923204518E-09</v>
+        <v>4.345324861432664E-09</v>
       </c>
       <c r="V2">
-        <v>-7.970712621871187E-10</v>
+        <v>-7.970800306473657E-10</v>
       </c>
       <c r="W2">
-        <v>-7.137982713381747E-10</v>
+        <v>-7.137894899738565E-10</v>
       </c>
       <c r="X2">
-        <v>-4.345325438930431E-09</v>
+        <v>-4.345307205719968E-09</v>
       </c>
       <c r="Y2">
-        <v>7.970738611660104E-10</v>
+        <v>7.970751513982753E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10435,40 +10435,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8551989639615297</v>
+        <v>0.8551989639616466</v>
       </c>
       <c r="AH2">
-        <v>0.6449366187237819</v>
+        <v>0.6449366187235954</v>
       </c>
       <c r="AI2">
-        <v>0.4394789399935439</v>
+        <v>0.4394789399935923</v>
       </c>
       <c r="AJ2">
-        <v>0.855198963968226</v>
+        <v>0.8551989639683426</v>
       </c>
       <c r="AK2">
-        <v>0.6449366187054976</v>
+        <v>0.6449366187053114</v>
       </c>
       <c r="AL2">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400294214</v>
       </c>
       <c r="AM2">
-        <v>-3.955340391003945</v>
+        <v>-3.955340390992379</v>
       </c>
       <c r="AN2">
-        <v>-153.8366771790807</v>
+        <v>-153.8366771790887</v>
       </c>
       <c r="AO2">
-        <v>128.6205387876522</v>
+        <v>128.6205387876258</v>
       </c>
       <c r="AP2">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389984521</v>
       </c>
       <c r="AQ2">
-        <v>-153.8366771755841</v>
+        <v>-153.8366771755922</v>
       </c>
       <c r="AR2">
-        <v>128.6205387908427</v>
+        <v>128.6205387908164</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -10512,40 +10512,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.593901574125834E-10</v>
+        <v>7.593892544631929E-10</v>
       </c>
       <c r="O3">
-        <v>6.355550307050937E-10</v>
+        <v>6.355319151454582E-10</v>
       </c>
       <c r="P3">
-        <v>1.044355399778216E-09</v>
+        <v>1.044371001351236E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.593985196191799E-10</v>
+        <v>-7.594051405717971E-10</v>
       </c>
       <c r="R3">
-        <v>-6.355468525267127E-10</v>
+        <v>-6.355277302507679E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044352146762406E-09</v>
+        <v>-1.044363195973341E-09</v>
       </c>
       <c r="T3">
-        <v>-2.379513805732527E-10</v>
+        <v>-2.379350753071683E-10</v>
       </c>
       <c r="U3">
-        <v>-1.448441010703838E-09</v>
+        <v>-1.448425136336218E-09</v>
       </c>
       <c r="V3">
-        <v>2.656839148507391E-10</v>
+        <v>2.656777268559177E-10</v>
       </c>
       <c r="W3">
-        <v>2.379478980620694E-10</v>
+        <v>2.379402344419469E-10</v>
       </c>
       <c r="X3">
-        <v>1.448438220816299E-09</v>
+        <v>1.448437403595217E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.656813160846875E-10</v>
+        <v>-2.656741558466002E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -10566,40 +10566,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8551989639704575</v>
+        <v>0.8551989639705739</v>
       </c>
       <c r="AH3">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186992171</v>
       </c>
       <c r="AI3">
-        <v>0.4394789400413159</v>
+        <v>0.4394789400413649</v>
       </c>
       <c r="AJ3">
-        <v>0.855198963968226</v>
+        <v>0.8551989639683426</v>
       </c>
       <c r="AK3">
-        <v>0.6449366187054976</v>
+        <v>0.6449366187053114</v>
       </c>
       <c r="AL3">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400294214</v>
       </c>
       <c r="AM3">
-        <v>-3.955340389660123</v>
+        <v>-3.955340389648562</v>
       </c>
       <c r="AN3">
-        <v>-153.8366771744186</v>
+        <v>-153.8366771744267</v>
       </c>
       <c r="AO3">
-        <v>128.6205387919062</v>
+        <v>128.62053879188</v>
       </c>
       <c r="AP3">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389984521</v>
       </c>
       <c r="AQ3">
-        <v>-153.8366771755841</v>
+        <v>-153.8366771755922</v>
       </c>
       <c r="AR3">
-        <v>128.6205387908427</v>
+        <v>128.6205387908164</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -10643,40 +10643,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.593907162845607E-10</v>
+        <v>7.593892544631929E-10</v>
       </c>
       <c r="O4">
-        <v>6.355386743952477E-10</v>
+        <v>6.355319151454582E-10</v>
       </c>
       <c r="P4">
-        <v>1.044367103241829E-09</v>
+        <v>1.044371001351236E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.594031198781495E-10</v>
+        <v>-7.594051405717971E-10</v>
       </c>
       <c r="R4">
-        <v>-6.355413684921736E-10</v>
+        <v>-6.355277302507679E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044363850226019E-09</v>
+        <v>-1.044363195973341E-09</v>
       </c>
       <c r="T4">
-        <v>-2.379432977992681E-10</v>
+        <v>-2.379350753071683E-10</v>
       </c>
       <c r="U4">
-        <v>-1.448435430875528E-09</v>
+        <v>-1.448425136336218E-09</v>
       </c>
       <c r="V4">
-        <v>2.656826063449084E-10</v>
+        <v>2.656777268559177E-10</v>
       </c>
       <c r="W4">
-        <v>2.379400947240733E-10</v>
+        <v>2.379402344419469E-10</v>
       </c>
       <c r="X4">
-        <v>1.448440914936682E-09</v>
+        <v>1.448437403595217E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.656800075788565E-10</v>
+        <v>-2.656741558466002E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -10697,40 +10697,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8551989639704576</v>
+        <v>0.8551989639705739</v>
       </c>
       <c r="AH4">
-        <v>0.644936618699403</v>
+        <v>0.6449366186992171</v>
       </c>
       <c r="AI4">
-        <v>0.4394789400413159</v>
+        <v>0.4394789400413649</v>
       </c>
       <c r="AJ4">
-        <v>0.855198963968226</v>
+        <v>0.8551989639683426</v>
       </c>
       <c r="AK4">
-        <v>0.6449366187054976</v>
+        <v>0.6449366187053114</v>
       </c>
       <c r="AL4">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400294214</v>
       </c>
       <c r="AM4">
-        <v>-3.955340389660124</v>
+        <v>-3.955340389648562</v>
       </c>
       <c r="AN4">
-        <v>-153.8366771744186</v>
+        <v>-153.8366771744267</v>
       </c>
       <c r="AO4">
-        <v>128.6205387919062</v>
+        <v>128.62053879188</v>
       </c>
       <c r="AP4">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389984521</v>
       </c>
       <c r="AQ4">
-        <v>-153.8366771755841</v>
+        <v>-153.8366771755922</v>
       </c>
       <c r="AR4">
-        <v>128.6205387908427</v>
+        <v>128.6205387908164</v>
       </c>
     </row>
   </sheetData>
@@ -10921,40 +10921,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.27823960536492E-09</v>
+        <v>-2.278242184930849E-09</v>
       </c>
       <c r="O2">
-        <v>-1.906621315351239E-09</v>
+        <v>-1.906633654427793E-09</v>
       </c>
       <c r="P2">
-        <v>-3.133050606616588E-09</v>
+        <v>-3.133064917956466E-09</v>
       </c>
       <c r="Q2">
-        <v>2.278243367346318E-09</v>
+        <v>2.278233822751269E-09</v>
       </c>
       <c r="R2">
-        <v>1.906618621441982E-09</v>
+        <v>1.90664880757923E-09</v>
       </c>
       <c r="S2">
-        <v>3.133053859819989E-09</v>
+        <v>3.133068816276676E-09</v>
       </c>
       <c r="T2">
-        <v>7.137939505496804E-10</v>
+        <v>7.13786007493328E-10</v>
       </c>
       <c r="U2">
-        <v>4.345330923204518E-09</v>
+        <v>4.345324861432664E-09</v>
       </c>
       <c r="V2">
-        <v>-7.970712621871187E-10</v>
+        <v>-7.970800306473657E-10</v>
       </c>
       <c r="W2">
-        <v>-7.137982713381747E-10</v>
+        <v>-7.137894899738565E-10</v>
       </c>
       <c r="X2">
-        <v>-4.345325438930431E-09</v>
+        <v>-4.345307205719968E-09</v>
       </c>
       <c r="Y2">
-        <v>7.970738611660104E-10</v>
+        <v>7.970751513982753E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -10975,40 +10975,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.8551989639615297</v>
+        <v>0.8551989639616466</v>
       </c>
       <c r="AH2">
-        <v>0.6449366187237819</v>
+        <v>0.6449366187235954</v>
       </c>
       <c r="AI2">
-        <v>0.4394789399935439</v>
+        <v>0.4394789399935923</v>
       </c>
       <c r="AJ2">
-        <v>0.855198963968226</v>
+        <v>0.8551989639683426</v>
       </c>
       <c r="AK2">
-        <v>0.6449366187054976</v>
+        <v>0.6449366187053114</v>
       </c>
       <c r="AL2">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400294214</v>
       </c>
       <c r="AM2">
-        <v>-3.955340391003945</v>
+        <v>-3.955340390992379</v>
       </c>
       <c r="AN2">
-        <v>-153.8366771790807</v>
+        <v>-153.8366771790887</v>
       </c>
       <c r="AO2">
-        <v>128.6205387876522</v>
+        <v>128.6205387876258</v>
       </c>
       <c r="AP2">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389984521</v>
       </c>
       <c r="AQ2">
-        <v>-153.8366771755841</v>
+        <v>-153.8366771755922</v>
       </c>
       <c r="AR2">
-        <v>128.6205387908427</v>
+        <v>128.6205387908164</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11052,40 +11052,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.593901574125834E-10</v>
+        <v>7.593892544631929E-10</v>
       </c>
       <c r="O3">
-        <v>6.355550307050937E-10</v>
+        <v>6.355319151454582E-10</v>
       </c>
       <c r="P3">
-        <v>1.044355399778216E-09</v>
+        <v>1.044371001351236E-09</v>
       </c>
       <c r="Q3">
-        <v>-7.593985196191799E-10</v>
+        <v>-7.594051405717971E-10</v>
       </c>
       <c r="R3">
-        <v>-6.355468525267127E-10</v>
+        <v>-6.355277302507679E-10</v>
       </c>
       <c r="S3">
-        <v>-1.044352146762406E-09</v>
+        <v>-1.044363195973341E-09</v>
       </c>
       <c r="T3">
-        <v>-2.379513805732527E-10</v>
+        <v>-2.379350753071683E-10</v>
       </c>
       <c r="U3">
-        <v>-1.448441010703838E-09</v>
+        <v>-1.448425136336218E-09</v>
       </c>
       <c r="V3">
-        <v>2.656839148507391E-10</v>
+        <v>2.656777268559177E-10</v>
       </c>
       <c r="W3">
-        <v>2.379478980620694E-10</v>
+        <v>2.379402344419469E-10</v>
       </c>
       <c r="X3">
-        <v>1.448438220816299E-09</v>
+        <v>1.448437403595217E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.656813160846875E-10</v>
+        <v>-2.656741558466002E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11106,40 +11106,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.8551989639704575</v>
+        <v>0.8551989639705739</v>
       </c>
       <c r="AH3">
-        <v>0.6449366186994032</v>
+        <v>0.6449366186992171</v>
       </c>
       <c r="AI3">
-        <v>0.4394789400413159</v>
+        <v>0.4394789400413649</v>
       </c>
       <c r="AJ3">
-        <v>0.855198963968226</v>
+        <v>0.8551989639683426</v>
       </c>
       <c r="AK3">
-        <v>0.6449366187054976</v>
+        <v>0.6449366187053114</v>
       </c>
       <c r="AL3">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400294214</v>
       </c>
       <c r="AM3">
-        <v>-3.955340389660123</v>
+        <v>-3.955340389648562</v>
       </c>
       <c r="AN3">
-        <v>-153.8366771744186</v>
+        <v>-153.8366771744267</v>
       </c>
       <c r="AO3">
-        <v>128.6205387919062</v>
+        <v>128.62053879188</v>
       </c>
       <c r="AP3">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389984521</v>
       </c>
       <c r="AQ3">
-        <v>-153.8366771755841</v>
+        <v>-153.8366771755922</v>
       </c>
       <c r="AR3">
-        <v>128.6205387908427</v>
+        <v>128.6205387908164</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11183,40 +11183,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.593907162845607E-10</v>
+        <v>7.593892544631929E-10</v>
       </c>
       <c r="O4">
-        <v>6.355386743952477E-10</v>
+        <v>6.355319151454582E-10</v>
       </c>
       <c r="P4">
-        <v>1.044367103241829E-09</v>
+        <v>1.044371001351236E-09</v>
       </c>
       <c r="Q4">
-        <v>-7.594031198781495E-10</v>
+        <v>-7.594051405717971E-10</v>
       </c>
       <c r="R4">
-        <v>-6.355413684921736E-10</v>
+        <v>-6.355277302507679E-10</v>
       </c>
       <c r="S4">
-        <v>-1.044363850226019E-09</v>
+        <v>-1.044363195973341E-09</v>
       </c>
       <c r="T4">
-        <v>-2.379432977992681E-10</v>
+        <v>-2.379350753071683E-10</v>
       </c>
       <c r="U4">
-        <v>-1.448435430875528E-09</v>
+        <v>-1.448425136336218E-09</v>
       </c>
       <c r="V4">
-        <v>2.656826063449084E-10</v>
+        <v>2.656777268559177E-10</v>
       </c>
       <c r="W4">
-        <v>2.379400947240733E-10</v>
+        <v>2.379402344419469E-10</v>
       </c>
       <c r="X4">
-        <v>1.448440914936682E-09</v>
+        <v>1.448437403595217E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.656800075788565E-10</v>
+        <v>-2.656741558466002E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11237,40 +11237,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.8551989639704576</v>
+        <v>0.8551989639705739</v>
       </c>
       <c r="AH4">
-        <v>0.644936618699403</v>
+        <v>0.6449366186992171</v>
       </c>
       <c r="AI4">
-        <v>0.4394789400413159</v>
+        <v>0.4394789400413649</v>
       </c>
       <c r="AJ4">
-        <v>0.855198963968226</v>
+        <v>0.8551989639683426</v>
       </c>
       <c r="AK4">
-        <v>0.6449366187054976</v>
+        <v>0.6449366187053114</v>
       </c>
       <c r="AL4">
-        <v>0.4394789400293728</v>
+        <v>0.4394789400294214</v>
       </c>
       <c r="AM4">
-        <v>-3.955340389660124</v>
+        <v>-3.955340389648562</v>
       </c>
       <c r="AN4">
-        <v>-153.8366771744186</v>
+        <v>-153.8366771744267</v>
       </c>
       <c r="AO4">
-        <v>128.6205387919062</v>
+        <v>128.62053879188</v>
       </c>
       <c r="AP4">
-        <v>-3.955340389996076</v>
+        <v>-3.955340389984521</v>
       </c>
       <c r="AQ4">
-        <v>-153.8366771755841</v>
+        <v>-153.8366771755922</v>
       </c>
       <c r="AR4">
-        <v>128.6205387908427</v>
+        <v>128.6205387908164</v>
       </c>
     </row>
   </sheetData>
@@ -11461,40 +11461,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.452721687690681E-09</v>
+        <v>-2.452735853271427E-09</v>
       </c>
       <c r="O2">
-        <v>-6.142721314333012E-10</v>
+        <v>-6.142721308968468E-10</v>
       </c>
       <c r="P2">
-        <v>-6.121028733697843E-10</v>
+        <v>-6.120997272522833E-10</v>
       </c>
       <c r="Q2">
-        <v>2.452718540601908E-09</v>
+        <v>2.452739000564301E-09</v>
       </c>
       <c r="R2">
-        <v>6.142658382935141E-10</v>
+        <v>6.142729189364026E-10</v>
       </c>
       <c r="S2">
-        <v>6.120997290321344E-10</v>
+        <v>6.120981554360701E-10</v>
       </c>
       <c r="T2">
-        <v>-2.495558308297732E-12</v>
+        <v>-2.486121568490947E-12</v>
       </c>
       <c r="U2">
-        <v>3.163951222150094E-09</v>
+        <v>3.163949648554255E-09</v>
       </c>
       <c r="V2">
-        <v>-3.165203730059228E-09</v>
+        <v>-3.165200581794227E-09</v>
       </c>
       <c r="W2">
-        <v>2.495557294628432E-12</v>
+        <v>2.486122702774398E-12</v>
       </c>
       <c r="X2">
-        <v>-3.163952797476922E-09</v>
+        <v>-3.163951221464636E-09</v>
       </c>
       <c r="Y2">
-        <v>3.165197435020354E-09</v>
+        <v>3.165197434483162E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -11515,40 +11515,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.66439163618761</v>
+        <v>0.6643916361876426</v>
       </c>
       <c r="AH2">
-        <v>0.3321958179292141</v>
+        <v>0.3321958179291811</v>
       </c>
       <c r="AI2">
-        <v>0.332195818258402</v>
+        <v>0.3321958182583689</v>
       </c>
       <c r="AJ2">
-        <v>0.6643916362152698</v>
+        <v>0.6643916362153025</v>
       </c>
       <c r="AK2">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179008822</v>
       </c>
       <c r="AL2">
-        <v>0.3321958183143616</v>
+        <v>0.332195818314328</v>
       </c>
       <c r="AM2">
-        <v>0.01955212036741396</v>
+        <v>0.01955212036204195</v>
       </c>
       <c r="AN2">
-        <v>-179.9804478777208</v>
+        <v>-179.98044787771</v>
       </c>
       <c r="AO2">
-        <v>-179.9804478815423</v>
+        <v>-179.9804478815316</v>
       </c>
       <c r="AP2">
-        <v>0.01955212177374359</v>
+        <v>0.01955212176841588</v>
       </c>
       <c r="AQ2">
-        <v>-179.9804478640088</v>
+        <v>-179.9804478639981</v>
       </c>
       <c r="AR2">
-        <v>-179.9804478924416</v>
+        <v>-179.980447892431</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -11592,40 +11592,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.175801931878284E-10</v>
+        <v>8.175786195924578E-10</v>
       </c>
       <c r="O3">
-        <v>2.047542316988562E-10</v>
+        <v>2.047510807492932E-10</v>
       </c>
       <c r="P3">
-        <v>2.040311442458695E-10</v>
+        <v>2.040311453196275E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.175770449116914E-10</v>
+        <v>-8.175786163591922E-10</v>
       </c>
       <c r="R3">
-        <v>-2.047542310835488E-10</v>
+        <v>-2.047502933362838E-10</v>
       </c>
       <c r="S3">
-        <v>-2.040311420195629E-10</v>
+        <v>-2.040327177627069E-10</v>
       </c>
       <c r="T3">
-        <v>8.234624353270234E-13</v>
+        <v>8.234618982637362E-13</v>
       </c>
       <c r="U3">
-        <v>-1.054654604526641E-09</v>
+        <v>-1.054643590432603E-09</v>
       </c>
       <c r="V3">
-        <v>1.05506790913099E-09</v>
+        <v>1.055064761940096E-09</v>
       </c>
       <c r="W3">
-        <v>-8.266085454731269E-13</v>
+        <v>-8.329034640292104E-13</v>
       </c>
       <c r="X3">
-        <v>1.054653030977513E-09</v>
+        <v>1.054642017151969E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.055074203466333E-09</v>
+        <v>-1.055067909621603E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -11646,40 +11646,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6643916362244897</v>
+        <v>0.6643916362245228</v>
       </c>
       <c r="AH3">
-        <v>0.3321958178914821</v>
+        <v>0.3321958178914489</v>
       </c>
       <c r="AI3">
-        <v>0.3321958183330145</v>
+        <v>0.3321958183329808</v>
       </c>
       <c r="AJ3">
-        <v>0.6643916362152698</v>
+        <v>0.6643916362153025</v>
       </c>
       <c r="AK3">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179008822</v>
       </c>
       <c r="AL3">
-        <v>0.3321958183143616</v>
+        <v>0.332195818314328</v>
       </c>
       <c r="AM3">
-        <v>0.01955212224252001</v>
+        <v>0.01955212223722264</v>
       </c>
       <c r="AN3">
-        <v>-179.9804478594381</v>
+        <v>-179.9804478594275</v>
       </c>
       <c r="AO3">
-        <v>-179.9804478960747</v>
+        <v>-179.9804478960641</v>
       </c>
       <c r="AP3">
-        <v>0.01955212177374359</v>
+        <v>0.01955212176841588</v>
       </c>
       <c r="AQ3">
-        <v>-179.9804478640088</v>
+        <v>-179.9804478639981</v>
       </c>
       <c r="AR3">
-        <v>-179.9804478924416</v>
+        <v>-179.980447892431</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -11723,40 +11723,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.1757389021438E-10</v>
+        <v>8.175786195924578E-10</v>
       </c>
       <c r="O4">
-        <v>2.047542327728331E-10</v>
+        <v>2.047510807492932E-10</v>
       </c>
       <c r="P4">
-        <v>2.040279949070971E-10</v>
+        <v>2.040311453196275E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.175770373938633E-10</v>
+        <v>-8.175786163591922E-10</v>
       </c>
       <c r="R4">
-        <v>-2.04757378274369E-10</v>
+        <v>-2.047502933362838E-10</v>
       </c>
       <c r="S4">
-        <v>-2.040279926807895E-10</v>
+        <v>-2.040327177627069E-10</v>
       </c>
       <c r="T4">
-        <v>8.486378139534225E-13</v>
+        <v>8.234618982637362E-13</v>
       </c>
       <c r="U4">
-        <v>-1.05465775171746E-09</v>
+        <v>-1.054643590432603E-09</v>
       </c>
       <c r="V4">
-        <v>1.055074202438664E-09</v>
+        <v>1.055064761940096E-09</v>
       </c>
       <c r="W4">
-        <v>-8.486388812283196E-13</v>
+        <v>-8.329034640292104E-13</v>
       </c>
       <c r="X4">
-        <v>1.054653029903537E-09</v>
+        <v>1.054642017151969E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.055080496774006E-09</v>
+        <v>-1.055067909621603E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -11777,40 +11777,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6643916362244897</v>
+        <v>0.6643916362245228</v>
       </c>
       <c r="AH4">
-        <v>0.3321958178914821</v>
+        <v>0.3321958178914489</v>
       </c>
       <c r="AI4">
-        <v>0.3321958183330146</v>
+        <v>0.3321958183329808</v>
       </c>
       <c r="AJ4">
-        <v>0.6643916362152698</v>
+        <v>0.6643916362153025</v>
       </c>
       <c r="AK4">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179008822</v>
       </c>
       <c r="AL4">
-        <v>0.3321958183143616</v>
+        <v>0.332195818314328</v>
       </c>
       <c r="AM4">
-        <v>0.01955212224249465</v>
+        <v>0.01955212223722264</v>
       </c>
       <c r="AN4">
-        <v>-179.9804478594381</v>
+        <v>-179.9804478594275</v>
       </c>
       <c r="AO4">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960641</v>
       </c>
       <c r="AP4">
-        <v>0.01955212177374359</v>
+        <v>0.01955212176841588</v>
       </c>
       <c r="AQ4">
-        <v>-179.9804478640088</v>
+        <v>-179.9804478639981</v>
       </c>
       <c r="AR4">
-        <v>-179.9804478924416</v>
+        <v>-179.980447892431</v>
       </c>
     </row>
   </sheetData>
@@ -12226,40 +12226,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.452721687690681E-09</v>
+        <v>-2.452735853271427E-09</v>
       </c>
       <c r="O2">
-        <v>-6.142721314333012E-10</v>
+        <v>-6.142721308968468E-10</v>
       </c>
       <c r="P2">
-        <v>-6.121028733697843E-10</v>
+        <v>-6.120997272522833E-10</v>
       </c>
       <c r="Q2">
-        <v>2.452718540601908E-09</v>
+        <v>2.452739000564301E-09</v>
       </c>
       <c r="R2">
-        <v>6.142658382935141E-10</v>
+        <v>6.142729189364026E-10</v>
       </c>
       <c r="S2">
-        <v>6.120997290321344E-10</v>
+        <v>6.120981554360701E-10</v>
       </c>
       <c r="T2">
-        <v>-2.495558308297732E-12</v>
+        <v>-2.486121568490947E-12</v>
       </c>
       <c r="U2">
-        <v>3.163951222150094E-09</v>
+        <v>3.163949648554255E-09</v>
       </c>
       <c r="V2">
-        <v>-3.165203730059228E-09</v>
+        <v>-3.165200581794227E-09</v>
       </c>
       <c r="W2">
-        <v>2.495557294628432E-12</v>
+        <v>2.486122702774398E-12</v>
       </c>
       <c r="X2">
-        <v>-3.163952797476922E-09</v>
+        <v>-3.163951221464636E-09</v>
       </c>
       <c r="Y2">
-        <v>3.165197435020354E-09</v>
+        <v>3.165197434483162E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12280,40 +12280,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.66439163618761</v>
+        <v>0.6643916361876426</v>
       </c>
       <c r="AH2">
-        <v>0.3321958179292141</v>
+        <v>0.3321958179291811</v>
       </c>
       <c r="AI2">
-        <v>0.332195818258402</v>
+        <v>0.3321958182583689</v>
       </c>
       <c r="AJ2">
-        <v>0.6643916362152698</v>
+        <v>0.6643916362153025</v>
       </c>
       <c r="AK2">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179008822</v>
       </c>
       <c r="AL2">
-        <v>0.3321958183143616</v>
+        <v>0.332195818314328</v>
       </c>
       <c r="AM2">
-        <v>0.01955212036741396</v>
+        <v>0.01955212036204195</v>
       </c>
       <c r="AN2">
-        <v>-179.9804478777208</v>
+        <v>-179.98044787771</v>
       </c>
       <c r="AO2">
-        <v>-179.9804478815423</v>
+        <v>-179.9804478815316</v>
       </c>
       <c r="AP2">
-        <v>0.01955212177374359</v>
+        <v>0.01955212176841588</v>
       </c>
       <c r="AQ2">
-        <v>-179.9804478640088</v>
+        <v>-179.9804478639981</v>
       </c>
       <c r="AR2">
-        <v>-179.9804478924416</v>
+        <v>-179.980447892431</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12357,40 +12357,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.175801931878284E-10</v>
+        <v>8.175786195924578E-10</v>
       </c>
       <c r="O3">
-        <v>2.047542316988562E-10</v>
+        <v>2.047510807492932E-10</v>
       </c>
       <c r="P3">
-        <v>2.040311442458695E-10</v>
+        <v>2.040311453196275E-10</v>
       </c>
       <c r="Q3">
-        <v>-8.175770449116914E-10</v>
+        <v>-8.175786163591922E-10</v>
       </c>
       <c r="R3">
-        <v>-2.047542310835488E-10</v>
+        <v>-2.047502933362838E-10</v>
       </c>
       <c r="S3">
-        <v>-2.040311420195629E-10</v>
+        <v>-2.040327177627069E-10</v>
       </c>
       <c r="T3">
-        <v>8.234624353270234E-13</v>
+        <v>8.234618982637362E-13</v>
       </c>
       <c r="U3">
-        <v>-1.054654604526641E-09</v>
+        <v>-1.054643590432603E-09</v>
       </c>
       <c r="V3">
-        <v>1.05506790913099E-09</v>
+        <v>1.055064761940096E-09</v>
       </c>
       <c r="W3">
-        <v>-8.266085454731269E-13</v>
+        <v>-8.329034640292104E-13</v>
       </c>
       <c r="X3">
-        <v>1.054653030977513E-09</v>
+        <v>1.054642017151969E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.055074203466333E-09</v>
+        <v>-1.055067909621603E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12411,40 +12411,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.6643916362244897</v>
+        <v>0.6643916362245228</v>
       </c>
       <c r="AH3">
-        <v>0.3321958178914821</v>
+        <v>0.3321958178914489</v>
       </c>
       <c r="AI3">
-        <v>0.3321958183330145</v>
+        <v>0.3321958183329808</v>
       </c>
       <c r="AJ3">
-        <v>0.6643916362152698</v>
+        <v>0.6643916362153025</v>
       </c>
       <c r="AK3">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179008822</v>
       </c>
       <c r="AL3">
-        <v>0.3321958183143616</v>
+        <v>0.332195818314328</v>
       </c>
       <c r="AM3">
-        <v>0.01955212224252001</v>
+        <v>0.01955212223722264</v>
       </c>
       <c r="AN3">
-        <v>-179.9804478594381</v>
+        <v>-179.9804478594275</v>
       </c>
       <c r="AO3">
-        <v>-179.9804478960747</v>
+        <v>-179.9804478960641</v>
       </c>
       <c r="AP3">
-        <v>0.01955212177374359</v>
+        <v>0.01955212176841588</v>
       </c>
       <c r="AQ3">
-        <v>-179.9804478640088</v>
+        <v>-179.9804478639981</v>
       </c>
       <c r="AR3">
-        <v>-179.9804478924416</v>
+        <v>-179.980447892431</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -12488,40 +12488,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.1757389021438E-10</v>
+        <v>8.175786195924578E-10</v>
       </c>
       <c r="O4">
-        <v>2.047542327728331E-10</v>
+        <v>2.047510807492932E-10</v>
       </c>
       <c r="P4">
-        <v>2.040279949070971E-10</v>
+        <v>2.040311453196275E-10</v>
       </c>
       <c r="Q4">
-        <v>-8.175770373938633E-10</v>
+        <v>-8.175786163591922E-10</v>
       </c>
       <c r="R4">
-        <v>-2.04757378274369E-10</v>
+        <v>-2.047502933362838E-10</v>
       </c>
       <c r="S4">
-        <v>-2.040279926807895E-10</v>
+        <v>-2.040327177627069E-10</v>
       </c>
       <c r="T4">
-        <v>8.486378139534225E-13</v>
+        <v>8.234618982637362E-13</v>
       </c>
       <c r="U4">
-        <v>-1.05465775171746E-09</v>
+        <v>-1.054643590432603E-09</v>
       </c>
       <c r="V4">
-        <v>1.055074202438664E-09</v>
+        <v>1.055064761940096E-09</v>
       </c>
       <c r="W4">
-        <v>-8.486388812283196E-13</v>
+        <v>-8.329034640292104E-13</v>
       </c>
       <c r="X4">
-        <v>1.054653029903537E-09</v>
+        <v>1.054642017151969E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.055080496774006E-09</v>
+        <v>-1.055067909621603E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -12542,40 +12542,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.6643916362244897</v>
+        <v>0.6643916362245228</v>
       </c>
       <c r="AH4">
-        <v>0.3321958178914821</v>
+        <v>0.3321958178914489</v>
       </c>
       <c r="AI4">
-        <v>0.3321958183330146</v>
+        <v>0.3321958183329808</v>
       </c>
       <c r="AJ4">
-        <v>0.6643916362152698</v>
+        <v>0.6643916362153025</v>
       </c>
       <c r="AK4">
-        <v>0.3321958179009152</v>
+        <v>0.3321958179008822</v>
       </c>
       <c r="AL4">
-        <v>0.3321958183143616</v>
+        <v>0.332195818314328</v>
       </c>
       <c r="AM4">
-        <v>0.01955212224249465</v>
+        <v>0.01955212223722264</v>
       </c>
       <c r="AN4">
-        <v>-179.9804478594381</v>
+        <v>-179.9804478594275</v>
       </c>
       <c r="AO4">
-        <v>-179.9804478960748</v>
+        <v>-179.9804478960641</v>
       </c>
       <c r="AP4">
-        <v>0.01955212177374359</v>
+        <v>0.01955212176841588</v>
       </c>
       <c r="AQ4">
-        <v>-179.9804478640088</v>
+        <v>-179.9804478639981</v>
       </c>
       <c r="AR4">
-        <v>-179.9804478924416</v>
+        <v>-179.980447892431</v>
       </c>
     </row>
   </sheetData>
@@ -12766,40 +12766,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.94772970542643E-09</v>
+        <v>-1.947736533350308E-09</v>
       </c>
       <c r="O2">
-        <v>-1.540753822025684E-09</v>
+        <v>-1.540752660304812E-09</v>
       </c>
       <c r="P2">
-        <v>-2.507005506028969E-09</v>
+        <v>-2.507007013323271E-09</v>
       </c>
       <c r="Q2">
-        <v>1.94772505355056E-09</v>
+        <v>1.947735384784783E-09</v>
       </c>
       <c r="R2">
-        <v>1.540756926417791E-09</v>
+        <v>1.540750889553794E-09</v>
       </c>
       <c r="S2">
-        <v>2.507006693370757E-09</v>
+        <v>2.507007607175607E-09</v>
       </c>
       <c r="T2">
-        <v>5.630823641704128E-10</v>
+        <v>5.6307553941003E-10</v>
       </c>
       <c r="U2">
-        <v>3.61947216290782E-09</v>
+        <v>3.619471220285949E-09</v>
       </c>
       <c r="V2">
-        <v>-8.22934807714704E-10</v>
+        <v>-8.229385288091965E-10</v>
       </c>
       <c r="W2">
-        <v>-5.63083873314408E-10</v>
+        <v>-5.630791033095057E-10</v>
       </c>
       <c r="X2">
-        <v>-3.619469286922712E-09</v>
+        <v>-3.619470553613903E-09</v>
       </c>
       <c r="Y2">
-        <v>8.229334607923683E-10</v>
+        <v>8.229378554552478E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -12820,40 +12820,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7668755422478354</v>
+        <v>0.766875542247871</v>
       </c>
       <c r="AH2">
-        <v>0.5649615026650587</v>
+        <v>0.5649615026650452</v>
       </c>
       <c r="AI2">
-        <v>0.3790339612538544</v>
+        <v>0.3790339612538024</v>
       </c>
       <c r="AJ2">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636401</v>
       </c>
       <c r="AK2">
-        <v>0.564961502657131</v>
+        <v>0.564961502657117</v>
       </c>
       <c r="AL2">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129372</v>
       </c>
       <c r="AM2">
-        <v>-3.827350193674389</v>
+        <v>-3.827350193677214</v>
       </c>
       <c r="AN2">
-        <v>-155.6209588726732</v>
+        <v>-155.6209588726682</v>
       </c>
       <c r="AO2">
-        <v>131.3836767675908</v>
+        <v>131.383676767591</v>
       </c>
       <c r="AP2">
-        <v>-3.827350192423927</v>
+        <v>-3.827350192426724</v>
       </c>
       <c r="AQ2">
-        <v>-155.6209588665842</v>
+        <v>-155.6209588665792</v>
       </c>
       <c r="AR2">
-        <v>131.3836767695575</v>
+        <v>131.3836767695576</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -12897,40 +12897,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.492451665718905E-10</v>
+        <v>6.492424481590603E-10</v>
       </c>
       <c r="O3">
-        <v>5.135874771678282E-10</v>
+        <v>5.135746982352043E-10</v>
       </c>
       <c r="P3">
-        <v>8.356657011254648E-10</v>
+        <v>8.356681222251948E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.492459514635686E-10</v>
+        <v>-6.492434755309853E-10</v>
       </c>
       <c r="R3">
-        <v>-5.135821637853522E-10</v>
+        <v>-5.135742599958511E-10</v>
       </c>
       <c r="S3">
-        <v>-8.356672083797948E-10</v>
+        <v>-8.356648344218631E-10</v>
       </c>
       <c r="T3">
-        <v>-1.877015321308264E-10</v>
+        <v>-1.877013502706814E-10</v>
       </c>
       <c r="U3">
-        <v>-1.206499214331305E-09</v>
+        <v>-1.206488845493109E-09</v>
       </c>
       <c r="V3">
-        <v>2.743075392986018E-10</v>
+        <v>2.743156550561458E-10</v>
       </c>
       <c r="W3">
-        <v>1.877034050295592E-10</v>
+        <v>1.876995986189456E-10</v>
       </c>
       <c r="X3">
-        <v>1.206497214982599E-09</v>
+        <v>1.20648463683134E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.743112603693698E-10</v>
+        <v>-2.743139546428923E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -12951,40 +12951,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7668755422688605</v>
+        <v>0.7668755422688966</v>
       </c>
       <c r="AH3">
-        <v>0.5649615026544883</v>
+        <v>0.564961502654474</v>
       </c>
       <c r="AI3">
-        <v>0.3790339613327004</v>
+        <v>0.3790339613326487</v>
       </c>
       <c r="AJ3">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636401</v>
       </c>
       <c r="AK3">
-        <v>0.564961502657131</v>
+        <v>0.564961502657117</v>
       </c>
       <c r="AL3">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129372</v>
       </c>
       <c r="AM3">
-        <v>-3.827350192007103</v>
+        <v>-3.827350192009878</v>
       </c>
       <c r="AN3">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645496</v>
       </c>
       <c r="AO3">
-        <v>131.3836767702131</v>
+        <v>131.3836767702132</v>
       </c>
       <c r="AP3">
-        <v>-3.827350192423927</v>
+        <v>-3.827350192426724</v>
       </c>
       <c r="AQ3">
-        <v>-155.6209588665842</v>
+        <v>-155.6209588665792</v>
       </c>
       <c r="AR3">
-        <v>131.3836767695575</v>
+        <v>131.3836767695576</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13028,40 +13028,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.49228983661523E-10</v>
+        <v>6.492424481590603E-10</v>
       </c>
       <c r="O4">
-        <v>5.135945616240133E-10</v>
+        <v>5.135746982352043E-10</v>
       </c>
       <c r="P4">
-        <v>8.356741514039077E-10</v>
+        <v>8.356681222251948E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.492298897933249E-10</v>
+        <v>-6.492434755309853E-10</v>
       </c>
       <c r="R4">
-        <v>-5.135963326977213E-10</v>
+        <v>-5.135742599958511E-10</v>
       </c>
       <c r="S4">
-        <v>-8.356762521476907E-10</v>
+        <v>-8.356648344218631E-10</v>
       </c>
       <c r="T4">
-        <v>-1.876713233258411E-10</v>
+        <v>-1.877013502706814E-10</v>
       </c>
       <c r="U4">
-        <v>-1.206501880161363E-09</v>
+        <v>-1.206488845493109E-09</v>
       </c>
       <c r="V4">
-        <v>2.743305394345627E-10</v>
+        <v>2.743156550561458E-10</v>
       </c>
       <c r="W4">
-        <v>1.876713839493393E-10</v>
+        <v>1.876995986189456E-10</v>
       </c>
       <c r="X4">
-        <v>1.206502546642715E-09</v>
+        <v>1.20648463683134E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.743335869369406E-10</v>
+        <v>-2.743139546428923E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13082,40 +13082,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7668755422688605</v>
+        <v>0.7668755422688966</v>
       </c>
       <c r="AH4">
-        <v>0.5649615026544885</v>
+        <v>0.564961502654474</v>
       </c>
       <c r="AI4">
-        <v>0.3790339613327008</v>
+        <v>0.3790339613326487</v>
       </c>
       <c r="AJ4">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636401</v>
       </c>
       <c r="AK4">
-        <v>0.564961502657131</v>
+        <v>0.564961502657117</v>
       </c>
       <c r="AL4">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129372</v>
       </c>
       <c r="AM4">
-        <v>-3.827350192007134</v>
+        <v>-3.827350192009878</v>
       </c>
       <c r="AN4">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645496</v>
       </c>
       <c r="AO4">
-        <v>131.383676770213</v>
+        <v>131.3836767702132</v>
       </c>
       <c r="AP4">
-        <v>-3.827350192423927</v>
+        <v>-3.827350192426724</v>
       </c>
       <c r="AQ4">
-        <v>-155.6209588665842</v>
+        <v>-155.6209588665792</v>
       </c>
       <c r="AR4">
-        <v>131.3836767695575</v>
+        <v>131.3836767695576</v>
       </c>
     </row>
   </sheetData>
@@ -13306,40 +13306,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-1.94772970542643E-09</v>
+        <v>-1.947736533350308E-09</v>
       </c>
       <c r="O2">
-        <v>-1.540753822025684E-09</v>
+        <v>-1.540752660304812E-09</v>
       </c>
       <c r="P2">
-        <v>-2.507005506028969E-09</v>
+        <v>-2.507007013323271E-09</v>
       </c>
       <c r="Q2">
-        <v>1.94772505355056E-09</v>
+        <v>1.947735384784783E-09</v>
       </c>
       <c r="R2">
-        <v>1.540756926417791E-09</v>
+        <v>1.540750889553794E-09</v>
       </c>
       <c r="S2">
-        <v>2.507006693370757E-09</v>
+        <v>2.507007607175607E-09</v>
       </c>
       <c r="T2">
-        <v>5.630823641704128E-10</v>
+        <v>5.6307553941003E-10</v>
       </c>
       <c r="U2">
-        <v>3.61947216290782E-09</v>
+        <v>3.619471220285949E-09</v>
       </c>
       <c r="V2">
-        <v>-8.22934807714704E-10</v>
+        <v>-8.229385288091965E-10</v>
       </c>
       <c r="W2">
-        <v>-5.63083873314408E-10</v>
+        <v>-5.630791033095057E-10</v>
       </c>
       <c r="X2">
-        <v>-3.619469286922712E-09</v>
+        <v>-3.619470553613903E-09</v>
       </c>
       <c r="Y2">
-        <v>8.229334607923683E-10</v>
+        <v>8.229378554552478E-10</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -13360,40 +13360,40 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.7668755422478354</v>
+        <v>0.766875542247871</v>
       </c>
       <c r="AH2">
-        <v>0.5649615026650587</v>
+        <v>0.5649615026650452</v>
       </c>
       <c r="AI2">
-        <v>0.3790339612538544</v>
+        <v>0.3790339612538024</v>
       </c>
       <c r="AJ2">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636401</v>
       </c>
       <c r="AK2">
-        <v>0.564961502657131</v>
+        <v>0.564961502657117</v>
       </c>
       <c r="AL2">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129372</v>
       </c>
       <c r="AM2">
-        <v>-3.827350193674389</v>
+        <v>-3.827350193677214</v>
       </c>
       <c r="AN2">
-        <v>-155.6209588726732</v>
+        <v>-155.6209588726682</v>
       </c>
       <c r="AO2">
-        <v>131.3836767675908</v>
+        <v>131.383676767591</v>
       </c>
       <c r="AP2">
-        <v>-3.827350192423927</v>
+        <v>-3.827350192426724</v>
       </c>
       <c r="AQ2">
-        <v>-155.6209588665842</v>
+        <v>-155.6209588665792</v>
       </c>
       <c r="AR2">
-        <v>131.3836767695575</v>
+        <v>131.3836767695576</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -13437,40 +13437,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.492451665718905E-10</v>
+        <v>6.492424481590603E-10</v>
       </c>
       <c r="O3">
-        <v>5.135874771678282E-10</v>
+        <v>5.135746982352043E-10</v>
       </c>
       <c r="P3">
-        <v>8.356657011254648E-10</v>
+        <v>8.356681222251948E-10</v>
       </c>
       <c r="Q3">
-        <v>-6.492459514635686E-10</v>
+        <v>-6.492434755309853E-10</v>
       </c>
       <c r="R3">
-        <v>-5.135821637853522E-10</v>
+        <v>-5.135742599958511E-10</v>
       </c>
       <c r="S3">
-        <v>-8.356672083797948E-10</v>
+        <v>-8.356648344218631E-10</v>
       </c>
       <c r="T3">
-        <v>-1.877015321308264E-10</v>
+        <v>-1.877013502706814E-10</v>
       </c>
       <c r="U3">
-        <v>-1.206499214331305E-09</v>
+        <v>-1.206488845493109E-09</v>
       </c>
       <c r="V3">
-        <v>2.743075392986018E-10</v>
+        <v>2.743156550561458E-10</v>
       </c>
       <c r="W3">
-        <v>1.877034050295592E-10</v>
+        <v>1.876995986189456E-10</v>
       </c>
       <c r="X3">
-        <v>1.206497214982599E-09</v>
+        <v>1.20648463683134E-09</v>
       </c>
       <c r="Y3">
-        <v>-2.743112603693698E-10</v>
+        <v>-2.743139546428923E-10</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -13491,40 +13491,40 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7668755422688605</v>
+        <v>0.7668755422688966</v>
       </c>
       <c r="AH3">
-        <v>0.5649615026544883</v>
+        <v>0.564961502654474</v>
       </c>
       <c r="AI3">
-        <v>0.3790339613327004</v>
+        <v>0.3790339613326487</v>
       </c>
       <c r="AJ3">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636401</v>
       </c>
       <c r="AK3">
-        <v>0.564961502657131</v>
+        <v>0.564961502657117</v>
       </c>
       <c r="AL3">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129372</v>
       </c>
       <c r="AM3">
-        <v>-3.827350192007103</v>
+        <v>-3.827350192009878</v>
       </c>
       <c r="AN3">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645496</v>
       </c>
       <c r="AO3">
-        <v>131.3836767702131</v>
+        <v>131.3836767702132</v>
       </c>
       <c r="AP3">
-        <v>-3.827350192423927</v>
+        <v>-3.827350192426724</v>
       </c>
       <c r="AQ3">
-        <v>-155.6209588665842</v>
+        <v>-155.6209588665792</v>
       </c>
       <c r="AR3">
-        <v>131.3836767695575</v>
+        <v>131.3836767695576</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -13568,40 +13568,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.49228983661523E-10</v>
+        <v>6.492424481590603E-10</v>
       </c>
       <c r="O4">
-        <v>5.135945616240133E-10</v>
+        <v>5.135746982352043E-10</v>
       </c>
       <c r="P4">
-        <v>8.356741514039077E-10</v>
+        <v>8.356681222251948E-10</v>
       </c>
       <c r="Q4">
-        <v>-6.492298897933249E-10</v>
+        <v>-6.492434755309853E-10</v>
       </c>
       <c r="R4">
-        <v>-5.135963326977213E-10</v>
+        <v>-5.135742599958511E-10</v>
       </c>
       <c r="S4">
-        <v>-8.356762521476907E-10</v>
+        <v>-8.356648344218631E-10</v>
       </c>
       <c r="T4">
-        <v>-1.876713233258411E-10</v>
+        <v>-1.877013502706814E-10</v>
       </c>
       <c r="U4">
-        <v>-1.206501880161363E-09</v>
+        <v>-1.206488845493109E-09</v>
       </c>
       <c r="V4">
-        <v>2.743305394345627E-10</v>
+        <v>2.743156550561458E-10</v>
       </c>
       <c r="W4">
-        <v>1.876713839493393E-10</v>
+        <v>1.876995986189456E-10</v>
       </c>
       <c r="X4">
-        <v>1.206502546642715E-09</v>
+        <v>1.20648463683134E-09</v>
       </c>
       <c r="Y4">
-        <v>-2.743335869369406E-10</v>
+        <v>-2.743139546428923E-10</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -13622,40 +13622,40 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.7668755422688605</v>
+        <v>0.7668755422688966</v>
       </c>
       <c r="AH4">
-        <v>0.5649615026544885</v>
+        <v>0.564961502654474</v>
       </c>
       <c r="AI4">
-        <v>0.3790339613327008</v>
+        <v>0.3790339613326487</v>
       </c>
       <c r="AJ4">
-        <v>0.7668755422636042</v>
+        <v>0.7668755422636401</v>
       </c>
       <c r="AK4">
-        <v>0.564961502657131</v>
+        <v>0.564961502657117</v>
       </c>
       <c r="AL4">
-        <v>0.3790339613129891</v>
+        <v>0.3790339613129372</v>
       </c>
       <c r="AM4">
-        <v>-3.827350192007134</v>
+        <v>-3.827350192009878</v>
       </c>
       <c r="AN4">
-        <v>-155.6209588645546</v>
+        <v>-155.6209588645496</v>
       </c>
       <c r="AO4">
-        <v>131.383676770213</v>
+        <v>131.3836767702132</v>
       </c>
       <c r="AP4">
-        <v>-3.827350192423927</v>
+        <v>-3.827350192426724</v>
       </c>
       <c r="AQ4">
-        <v>-155.6209588665842</v>
+        <v>-155.6209588665792</v>
       </c>
       <c r="AR4">
-        <v>131.3836767695575</v>
+        <v>131.3836767695576</v>
       </c>
     </row>
   </sheetData>
@@ -14968,40 +14968,40 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.605323420844211E-14</v>
+        <v>-2.084258736675597E-14</v>
       </c>
       <c r="O2">
-        <v>1.302657324430829E-14</v>
+        <v>-1.042133592937637E-14</v>
       </c>
       <c r="P2">
-        <v>5.210602310044589E-15</v>
+        <v>-1.563198667544865E-14</v>
       </c>
       <c r="Q2">
-        <v>1.563194052506538E-14</v>
+        <v>-1.563194052506539E-14</v>
       </c>
       <c r="R2">
-        <v>-1.04208215775057E-14</v>
+        <v>2.605370469744307E-14</v>
       </c>
       <c r="S2">
-        <v>-1.042082090133837E-14</v>
+        <v>1.563241492522815E-14</v>
       </c>
       <c r="T2">
-        <v>2.084258736675318E-14</v>
+        <v>-3.158828288434531E-27</v>
       </c>
       <c r="U2">
-        <v>5.763394861896599E-09</v>
+        <v>5.763400072542076E-09</v>
       </c>
       <c r="V2">
-        <v>-5.763402682029843E-09</v>
+        <v>-5.763392260734786E-09</v>
       </c>
       <c r="W2">
-        <v>-2.08425873667533E-14</v>
+        <v>-1.042129368338035E-14</v>
       </c>
       <c r="X2">
-        <v>-5.763400072057539E-09</v>
+        <v>-5.7634026773796E-09</v>
       </c>
       <c r="Y2">
-        <v>5.763402682515742E-09</v>
+        <v>5.763387050573843E-09</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -15022,40 +15022,40 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808897</v>
       </c>
       <c r="AG2">
-        <v>0.550000011705746</v>
+        <v>0.550000011705616</v>
       </c>
       <c r="AH2">
-        <v>0.5500000121030185</v>
+        <v>0.5500000121028877</v>
       </c>
       <c r="AI2">
-        <v>1.100000023808766</v>
+        <v>1.100000023808896</v>
       </c>
       <c r="AJ2">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116592473</v>
       </c>
       <c r="AK2">
-        <v>0.5500000121493877</v>
+        <v>0.5500000121492573</v>
       </c>
       <c r="AL2">
-        <v>6.835683379550131E-13</v>
+        <v>8.683544223616918E-12</v>
       </c>
       <c r="AM2">
-        <v>-179.9999999995567</v>
+        <v>-179.9999999995727</v>
       </c>
       <c r="AN2">
-        <v>179.99999999955</v>
+        <v>179.999999999534</v>
       </c>
       <c r="AO2">
-        <v>7.06355645745588E-13</v>
+        <v>8.68972208498806E-12</v>
       </c>
       <c r="AP2">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999953153</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999952926</v>
+        <v>179.9999999952766</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15099,40 +15099,40 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.563194052506458E-14</v>
+        <v>-3.647452789181817E-14</v>
       </c>
       <c r="O3">
-        <v>1.302682204731261E-14</v>
+        <v>2.044132128564029E-19</v>
       </c>
       <c r="P3">
-        <v>1.563214570858114E-14</v>
+        <v>1.563214624901918E-14</v>
       </c>
       <c r="Q3">
-        <v>5.210646841687731E-15</v>
+        <v>5.210646841685831E-15</v>
       </c>
       <c r="R3">
-        <v>-1.573656534921777E-19</v>
+        <v>1.563178368626172E-14</v>
       </c>
       <c r="S3">
-        <v>-3.126403865961736E-14</v>
+        <v>-1.563209866480821E-14</v>
       </c>
       <c r="T3">
-        <v>-4.168517473350715E-14</v>
+        <v>-3.126388105013947E-14</v>
       </c>
       <c r="U3">
-        <v>-1.921131620416245E-09</v>
+        <v>-1.921115988475277E-09</v>
       </c>
       <c r="V3">
-        <v>1.92111338497186E-09</v>
+        <v>1.92114464885247E-09</v>
       </c>
       <c r="W3">
-        <v>5.21064684168838E-14</v>
+        <v>2.084258736675676E-14</v>
       </c>
       <c r="X3">
-        <v>1.921115988529715E-09</v>
+        <v>1.921113383205845E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.921134227505244E-09</v>
+        <v>-1.921149859445322E-09</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -15153,40 +15153,40 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.100000023808765</v>
+        <v>1.100000023808896</v>
       </c>
       <c r="AG3">
-        <v>0.5500000116439208</v>
+        <v>0.5500000116437915</v>
       </c>
       <c r="AH3">
-        <v>0.5500000121648446</v>
+        <v>0.5500000121647144</v>
       </c>
       <c r="AI3">
-        <v>1.100000023808766</v>
+        <v>1.100000023808896</v>
       </c>
       <c r="AJ3">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116592473</v>
       </c>
       <c r="AK3">
-        <v>0.5500000121493877</v>
+        <v>0.5500000121492573</v>
       </c>
       <c r="AL3">
-        <v>7.194758010685721E-13</v>
+        <v>8.70364030378579E-12</v>
       </c>
       <c r="AM3">
-        <v>-179.9999999938803</v>
+        <v>-179.9999999938962</v>
       </c>
       <c r="AN3">
-        <v>179.9999999938735</v>
+        <v>179.9999999938575</v>
       </c>
       <c r="AO3">
-        <v>7.06355645745588E-13</v>
+        <v>8.68972208498806E-12</v>
       </c>
       <c r="AP3">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999953153</v>
       </c>
       <c r="AQ3">
-        <v>179.9999999952926</v>
+        <v>179.9999999952766</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15230,40 +15230,40 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-5.210646841687913E-15</v>
+        <v>-3.647452789181817E-14</v>
       </c>
       <c r="O4">
-        <v>2.605528368871056E-15</v>
+        <v>2.044132128564029E-19</v>
       </c>
       <c r="P4">
-        <v>3.647473308631799E-14</v>
+        <v>1.563214624901918E-14</v>
       </c>
       <c r="Q4">
-        <v>-5.210646841688824E-15</v>
+        <v>5.210646841685831E-15</v>
       </c>
       <c r="R4">
-        <v>1.042113631137363E-14</v>
+        <v>1.563178368626172E-14</v>
       </c>
       <c r="S4">
-        <v>-4.168533234763641E-14</v>
+        <v>-1.563209866480821E-14</v>
       </c>
       <c r="T4">
-        <v>-3.647452789181866E-14</v>
+        <v>-3.126388105013947E-14</v>
       </c>
       <c r="U4">
-        <v>-1.921131620416245E-09</v>
+        <v>-1.921115988475277E-09</v>
       </c>
       <c r="V4">
-        <v>1.921123806265546E-09</v>
+        <v>1.92114464885247E-09</v>
       </c>
       <c r="W4">
-        <v>3.647452789181855E-14</v>
+        <v>2.084258736675676E-14</v>
       </c>
       <c r="X4">
-        <v>1.921136831117073E-09</v>
+        <v>1.921113383205845E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.921134227505244E-09</v>
+        <v>-1.921149859445322E-09</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -15284,40 +15284,40 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.100000023808765</v>
+        <v>1.100000023808896</v>
       </c>
       <c r="AG4">
-        <v>0.5500000116439206</v>
+        <v>0.5500000116437915</v>
       </c>
       <c r="AH4">
-        <v>0.5500000121648447</v>
+        <v>0.5500000121647144</v>
       </c>
       <c r="AI4">
-        <v>1.100000023808766</v>
+        <v>1.100000023808896</v>
       </c>
       <c r="AJ4">
-        <v>0.5500000116593766</v>
+        <v>0.5500000116592473</v>
       </c>
       <c r="AK4">
-        <v>0.5500000121493877</v>
+        <v>0.5500000121492573</v>
       </c>
       <c r="AL4">
-        <v>7.194740614528267E-13</v>
+        <v>8.70364030378579E-12</v>
       </c>
       <c r="AM4">
-        <v>-179.9999999938803</v>
+        <v>-179.9999999938962</v>
       </c>
       <c r="AN4">
-        <v>179.9999999938735</v>
+        <v>179.9999999938575</v>
       </c>
       <c r="AO4">
-        <v>7.06355645745588E-13</v>
+        <v>8.68972208498806E-12</v>
       </c>
       <c r="AP4">
-        <v>-179.9999999952994</v>
+        <v>-179.9999999953153</v>
       </c>
       <c r="AQ4">
-        <v>179.9999999952926</v>
+        <v>179.9999999952766</v>
       </c>
     </row>
   </sheetData>
